--- a/Fuzzy_Sets_Viewer (2).xlsx
+++ b/Fuzzy_Sets_Viewer (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\AI -  Assn2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F304074D-7DEA-46E2-9624-7735E0F50167}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC974A0A-EC9E-406E-A7E0-31BF003F6AFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X" sheetId="3" r:id="rId1"/>
@@ -10367,70 +10367,70 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.96666666666486667</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.89999999999813329</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.83333333333140003</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.76666666666466665</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.69999999999793328</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.63333333333120001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.56666666666446663</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.49999999999773331</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.43333333333099999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.36666666666426667</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.29999999999753335</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2333333333308</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.16666666666406665</c:v>
+                  <c:v>0.99999999999609979</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.9999999997333319E-2</c:v>
+                  <c:v>0.89999999999599978</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3333333330599992E-2</c:v>
+                  <c:v>0.79999999999589977</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.69999999999579987</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.59999999999569986</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.49999999999559991</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.3999999999954999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.29999999999539995</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.19999999999529997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999995199998E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -11621,73 +11621,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>1.0900169655769784E-11</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0</c:v>
+                  <c:v>0.10000000001100014</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0</c:v>
+                  <c:v>0.2000000000111001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>0.30000000001120009</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>0.40000000001130004</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0</c:v>
+                  <c:v>0.50000000001139999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>0.6000000000115</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>0.70000000001160001</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.333333334113342E-2</c:v>
+                  <c:v>0.80000000001169991</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.10000000000786675</c:v>
+                  <c:v>0.90000000001179992</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.16666666667460009</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.23333333334133341</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.30000000000806676</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.36666666667480008</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.4333333333415334</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.50000000000826672</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.5666666666750001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.63333333334173336</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.70000000000846674</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.76666666667520011</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.83333333334193305</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.90000000000866642</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.96666666667539969</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>1</c:v>
@@ -12383,70 +12383,70 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.33333333351334E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10000000000186673</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.16666666666860006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2333333333353334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.30000000000206672</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.36666666666880005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.43333333333553342</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.50000000000226674</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.56666666666900012</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.63333333333573338</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.70000000000246676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.76666666666920003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.8333333333359334</c:v>
+                  <c:v>3.9002134855081733E-12</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.90000000000266678</c:v>
+                  <c:v>0.10000000000400018</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.96666666666940004</c:v>
+                  <c:v>0.20000000000410015</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>0.30000000000420013</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>0.40000000000430008</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>0.50000000000440004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>0.60000000000450004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>0.70000000000460005</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>0.80000000000469995</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>0.90000000000479996</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1</c:v>
@@ -12473,70 +12473,70 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.97777777777524455</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.93333333333075563</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.88888888888626671</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.84444444444177791</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.79999999999728899</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.75555555555280007</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.71111111110831116</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.66666666666382224</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.62222222221933343</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.57777777777484451</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.5333333333303556</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.48888888888586668</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.44444444444137826</c:v>
+                  <c:v>0.99999999999310096</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.39999999999688934</c:v>
+                  <c:v>0.89999999999300095</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.35555555555240043</c:v>
+                  <c:v>0.79999999999290095</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.31111111110791156</c:v>
+                  <c:v>0.69999999999280094</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.2666666666634227</c:v>
+                  <c:v>0.59999999999270104</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.22222222221893378</c:v>
+                  <c:v>0.49999999999260103</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1777777777744449</c:v>
+                  <c:v>0.39999999999250102</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.13333333332995601</c:v>
+                  <c:v>0.29999999999240101</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.8888888885467116E-2</c:v>
+                  <c:v>0.199999999992301</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.4444444440978136E-2</c:v>
+                  <c:v>9.99999999922008E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0</c:v>
@@ -13517,64 +13517,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.8558066469982858E-12</c:v>
+                  <c:v>6.8990646528988009E-12</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.14285714286714152</c:v>
+                  <c:v>0.10000000000699907</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.28571428572442725</c:v>
+                  <c:v>0.20000000000709908</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.42857142858171293</c:v>
+                  <c:v>0.30000000000719906</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.57142857143899861</c:v>
+                  <c:v>0.40000000000729902</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.71428571429628429</c:v>
+                  <c:v>0.50000000000739908</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.85714285715356997</c:v>
+                  <c:v>0.60000000000749909</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1</c:v>
+                  <c:v>0.70000000000759899</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1</c:v>
+                  <c:v>0.800000000007699</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1</c:v>
+                  <c:v>0.90000000000779923</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999210076</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1</c:v>
+                  <c:v>0.89999999999200109</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1</c:v>
+                  <c:v>0.79999999999190108</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.99999999998828715</c:v>
+                  <c:v>0.69999999999180107</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.85714285713100147</c:v>
+                  <c:v>0.59999999999170106</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.71428571427371579</c:v>
+                  <c:v>0.49999999999160105</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.57142857141643</c:v>
+                  <c:v>0.39999999999150104</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.42857142855914432</c:v>
+                  <c:v>0.29999999999140103</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.28571428570185858</c:v>
+                  <c:v>0.19999999999130103</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.14285714284457288</c:v>
+                  <c:v>9.9999999991201016E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>0</c:v>
@@ -14645,73 +14645,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.99999999999515543</c:v>
+                  <c:v>0.99999999998909983</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.95555555555066662</c:v>
+                  <c:v>0.89999999998899982</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.91111111110617771</c:v>
+                  <c:v>0.79999999998889981</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.86666666666168879</c:v>
+                  <c:v>0.69999999998879991</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.82222222221719998</c:v>
+                  <c:v>0.59999999998869991</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.77777777777271107</c:v>
+                  <c:v>0.49999999998859995</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.73333333332822215</c:v>
+                  <c:v>0.39999999998849994</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.68888888888373323</c:v>
+                  <c:v>0.29999999998839999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.64444444443924442</c:v>
+                  <c:v>0.19999999998830001</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.59999999999475551</c:v>
+                  <c:v>9.9999999988200042E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.55555555555026659</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.51111111110577778</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.46666666666128886</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.42222222221679995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.37777777777231109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.33333333332782217</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.28888888888333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.24444444443884442</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.19999999999435553</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.15555555554986664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.111111111105378</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>6.6666666660889121E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.2222222216400227E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>0</c:v>
@@ -15553,61 +15553,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.8999999999999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.79999999999999971</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.69999999999999962</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.39999999999999986</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.29999999999999977</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.19999999999999965</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.9999999999999548E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.79999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.69999999999999984</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.59999999999999976</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.49999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.40000000000000019</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.30000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.20000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.10000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -16801,61 +16801,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0</c:v>
+                  <c:v>0.10000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0</c:v>
+                  <c:v>0.20000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>0.30000000000002014</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>0.40000000000002017</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0</c:v>
+                  <c:v>0.50000000000001965</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>0.60000000000001974</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>0.70000000000001983</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>0.80000000000001981</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>0.9000000000000199</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.9984014443252821E-14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.10000000000001953</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.20000000000001963</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.30000000000001975</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.40000000000001984</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.50000000000001998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.60000000000002007</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.70000000000002016</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.8000000000000197</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.90000000000001978</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>1</c:v>
@@ -17569,61 +17569,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1000000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.20000000000000021</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.30000000000000032</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.39999999999999986</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.70000000000000018</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.80000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.90000000000000036</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>0.10000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>0.20000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>0.30000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>0.40000000000000019</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>0.50000000000000022</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>0.59999999999999976</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>0.69999999999999984</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>0.79999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1</c:v>
@@ -17659,61 +17659,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>0.89999999999999991</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.79999999999999982</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="72">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>0.70000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="74">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.49999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.40000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="75">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.1999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9.999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0</c:v>
@@ -18667,121 +18667,121 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>0.10000000000000009</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.20000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="72">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="74">
                   <c:v>0.40000000000000008</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.50000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="75">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>0.70000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.80000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="78">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>0.90000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1</c:v>
+                  <c:v>0.90000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1</c:v>
+                  <c:v>0.80000000000000093</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1</c:v>
+                  <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1</c:v>
+                  <c:v>0.40000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1</c:v>
+                  <c:v>0.20000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1</c:v>
+                  <c:v>0.10000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.90000000000000013</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.80000000000000016</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.50000000000000022</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.40000000000000008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.20000000000000018</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.10000000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
@@ -19735,61 +19735,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>0.19999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.999999999999995E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.1999999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.40000000000000008</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.49999999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.79999999999999982</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>1</c:v>
@@ -19825,61 +19825,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1</c:v>
+                  <c:v>0.79999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1</c:v>
+                  <c:v>0.69999999999997986</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1</c:v>
+                  <c:v>0.59999999999997977</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1</c:v>
+                  <c:v>0.49999999999998029</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1</c:v>
+                  <c:v>0.3999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1</c:v>
+                  <c:v>0.29999999999998017</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1</c:v>
+                  <c:v>0.19999999999998011</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1</c:v>
+                  <c:v>9.9999999999980063E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.99999999999998002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.89999999999998037</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.79999999999998028</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.69999999999998019</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.5999999999999801</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.49999999999998002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.39999999999997987</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.29999999999997978</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.19999999999998022</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>9.9999999999980119E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>0</c:v>
@@ -21550,7 +21550,7 @@
   <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33388,8 +33388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80852986-C994-4AE5-B43E-409E55245785}">
   <dimension ref="A1:N225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33460,10 +33460,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.52500000000000002</v>
+        <v>-0.4</v>
       </c>
       <c r="C7" s="7">
-        <v>-0.375</v>
+        <v>-0.3</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -33479,7 +33479,7 @@
       </c>
       <c r="H7" s="9">
         <f>1/(B7-C7)</f>
-        <v>-6.6666666666666661</v>
+        <v>-9.9999999999999964</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -33487,13 +33487,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="7">
-        <v>-0.52500000000000002</v>
+        <v>-0.4</v>
       </c>
       <c r="C8" s="7">
-        <v>-0.375</v>
+        <v>-0.3</v>
       </c>
       <c r="D8" s="7">
-        <v>-0.22500000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -33503,11 +33503,11 @@
       </c>
       <c r="G8" s="1">
         <f>1/(C8-B8)</f>
-        <v>6.6666666666666661</v>
+        <v>9.9999999999999964</v>
       </c>
       <c r="H8" s="1">
         <f>1/(D8-E8)</f>
-        <v>-4.4444444444444446</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -33518,10 +33518,10 @@
         <v>-0.1</v>
       </c>
       <c r="C9" s="7">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="D9" s="11">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E9" s="11">
         <v>0.1</v>
@@ -33531,11 +33531,11 @@
       </c>
       <c r="G9" s="1">
         <f>1/(C9-B9)</f>
-        <v>14.285714285714285</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1">
         <f>1/(D9-E9)</f>
-        <v>-14.285714285714285</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -33552,7 +33552,7 @@
         <v>0.3</v>
       </c>
       <c r="E10" s="11">
-        <v>0.52500000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
@@ -33563,7 +33563,7 @@
       </c>
       <c r="H10" s="1">
         <f>1/(D10-E10)</f>
-        <v>-4.4444444444444438</v>
+        <v>-9.9999999999999964</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -33571,10 +33571,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="11">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="C11" s="11">
-        <v>0.52500000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -33587,7 +33587,7 @@
       </c>
       <c r="G11" s="1">
         <f>1/(C11-B11)</f>
-        <v>6.6666666666666661</v>
+        <v>9.9999999999999964</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -34755,14 +34755,14 @@
       </c>
       <c r="B66" s="10">
         <f t="shared" si="0"/>
-        <v>0.96666666666486667</v>
+        <v>1</v>
       </c>
       <c r="D66" s="17">
         <v>-0.51999999999973001</v>
       </c>
       <c r="E66" s="16">
         <f t="shared" si="1"/>
-        <v>3.33333333351334E-2</v>
+        <v>0</v>
       </c>
       <c r="G66" s="17">
         <v>-0.51999999999973001</v>
@@ -34794,14 +34794,14 @@
       </c>
       <c r="B67" s="10">
         <f t="shared" si="0"/>
-        <v>0.89999999999813329</v>
+        <v>1</v>
       </c>
       <c r="D67" s="17">
         <v>-0.50999999999972001</v>
       </c>
       <c r="E67" s="16">
         <f t="shared" si="1"/>
-        <v>0.10000000000186673</v>
+        <v>0</v>
       </c>
       <c r="G67" s="17">
         <v>-0.50999999999972001</v>
@@ -34833,14 +34833,14 @@
       </c>
       <c r="B68" s="10">
         <f t="shared" si="0"/>
-        <v>0.83333333333140003</v>
+        <v>1</v>
       </c>
       <c r="D68" s="17">
         <v>-0.49999999999971001</v>
       </c>
       <c r="E68" s="16">
         <f t="shared" si="1"/>
-        <v>0.16666666666860006</v>
+        <v>0</v>
       </c>
       <c r="G68" s="17">
         <v>-0.49999999999971001</v>
@@ -34872,14 +34872,14 @@
       </c>
       <c r="B69" s="10">
         <f t="shared" si="0"/>
-        <v>0.76666666666466665</v>
+        <v>1</v>
       </c>
       <c r="D69" s="17">
         <v>-0.48999999999970001</v>
       </c>
       <c r="E69" s="16">
         <f t="shared" si="1"/>
-        <v>0.2333333333353334</v>
+        <v>0</v>
       </c>
       <c r="G69" s="17">
         <v>-0.48999999999970001</v>
@@ -34911,14 +34911,14 @@
       </c>
       <c r="B70" s="10">
         <f t="shared" si="0"/>
-        <v>0.69999999999793328</v>
+        <v>1</v>
       </c>
       <c r="D70" s="17">
         <v>-0.47999999999969001</v>
       </c>
       <c r="E70" s="16">
         <f t="shared" si="1"/>
-        <v>0.30000000000206672</v>
+        <v>0</v>
       </c>
       <c r="G70" s="17">
         <v>-0.47999999999969001</v>
@@ -34950,14 +34950,14 @@
       </c>
       <c r="B71" s="10">
         <f t="shared" si="0"/>
-        <v>0.63333333333120001</v>
+        <v>1</v>
       </c>
       <c r="D71" s="17">
         <v>-0.46999999999968001</v>
       </c>
       <c r="E71" s="16">
         <f t="shared" si="1"/>
-        <v>0.36666666666880005</v>
+        <v>0</v>
       </c>
       <c r="G71" s="17">
         <v>-0.46999999999968001</v>
@@ -34989,14 +34989,14 @@
       </c>
       <c r="B72" s="10">
         <f t="shared" si="0"/>
-        <v>0.56666666666446663</v>
+        <v>1</v>
       </c>
       <c r="D72" s="17">
         <v>-0.45999999999967001</v>
       </c>
       <c r="E72" s="16">
         <f t="shared" si="1"/>
-        <v>0.43333333333553342</v>
+        <v>0</v>
       </c>
       <c r="G72" s="17">
         <v>-0.45999999999967001</v>
@@ -35028,14 +35028,14 @@
       </c>
       <c r="B73" s="10">
         <f t="shared" si="0"/>
-        <v>0.49999999999773331</v>
+        <v>1</v>
       </c>
       <c r="D73" s="17">
         <v>-0.44999999999966001</v>
       </c>
       <c r="E73" s="16">
         <f t="shared" si="1"/>
-        <v>0.50000000000226674</v>
+        <v>0</v>
       </c>
       <c r="G73" s="17">
         <v>-0.44999999999966001</v>
@@ -35067,14 +35067,14 @@
       </c>
       <c r="B74" s="10">
         <f t="shared" si="0"/>
-        <v>0.43333333333099999</v>
+        <v>1</v>
       </c>
       <c r="D74" s="17">
         <v>-0.43999999999965</v>
       </c>
       <c r="E74" s="16">
         <f t="shared" si="1"/>
-        <v>0.56666666666900012</v>
+        <v>0</v>
       </c>
       <c r="G74" s="17">
         <v>-0.43999999999965</v>
@@ -35106,14 +35106,14 @@
       </c>
       <c r="B75" s="10">
         <f t="shared" si="0"/>
-        <v>0.36666666666426667</v>
+        <v>1</v>
       </c>
       <c r="D75" s="17">
         <v>-0.42999999999964</v>
       </c>
       <c r="E75" s="16">
         <f t="shared" si="1"/>
-        <v>0.63333333333573338</v>
+        <v>0</v>
       </c>
       <c r="G75" s="17">
         <v>-0.42999999999964</v>
@@ -35145,14 +35145,14 @@
       </c>
       <c r="B76" s="10">
         <f t="shared" si="0"/>
-        <v>0.29999999999753335</v>
+        <v>1</v>
       </c>
       <c r="D76" s="17">
         <v>-0.41999999999963</v>
       </c>
       <c r="E76" s="16">
         <f t="shared" si="1"/>
-        <v>0.70000000000246676</v>
+        <v>0</v>
       </c>
       <c r="G76" s="17">
         <v>-0.41999999999963</v>
@@ -35184,14 +35184,14 @@
       </c>
       <c r="B77" s="10">
         <f t="shared" si="0"/>
-        <v>0.2333333333308</v>
+        <v>1</v>
       </c>
       <c r="D77" s="17">
         <v>-0.40999999999962</v>
       </c>
       <c r="E77" s="16">
         <f t="shared" si="1"/>
-        <v>0.76666666666920003</v>
+        <v>0</v>
       </c>
       <c r="G77" s="17">
         <v>-0.40999999999962</v>
@@ -35223,14 +35223,14 @@
       </c>
       <c r="B78" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666406665</v>
+        <v>0.99999999999609979</v>
       </c>
       <c r="D78" s="17">
         <v>-0.39999999999961</v>
       </c>
       <c r="E78" s="16">
         <f t="shared" si="1"/>
-        <v>0.8333333333359334</v>
+        <v>3.9002134855081733E-12</v>
       </c>
       <c r="G78" s="17">
         <v>-0.39999999999961</v>
@@ -35262,14 +35262,14 @@
       </c>
       <c r="B79" s="10">
         <f t="shared" si="0"/>
-        <v>9.9999999997333319E-2</v>
+        <v>0.89999999999599978</v>
       </c>
       <c r="D79" s="17">
         <v>-0.3899999999996</v>
       </c>
       <c r="E79" s="16">
         <f t="shared" si="1"/>
-        <v>0.90000000000266678</v>
+        <v>0.10000000000400018</v>
       </c>
       <c r="G79" s="17">
         <v>-0.3899999999996</v>
@@ -35301,14 +35301,14 @@
       </c>
       <c r="B80" s="10">
         <f t="shared" si="0"/>
-        <v>3.3333333330599992E-2</v>
+        <v>0.79999999999589977</v>
       </c>
       <c r="D80" s="17">
         <v>-0.37999999999959</v>
       </c>
       <c r="E80" s="16">
         <f t="shared" si="1"/>
-        <v>0.96666666666940004</v>
+        <v>0.20000000000410015</v>
       </c>
       <c r="G80" s="17">
         <v>-0.37999999999959</v>
@@ -35340,14 +35340,14 @@
       </c>
       <c r="B81" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.69999999999579987</v>
       </c>
       <c r="D81" s="17">
         <v>-0.36999999999958</v>
       </c>
       <c r="E81" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.30000000000420013</v>
       </c>
       <c r="G81" s="17">
         <v>-0.36999999999958</v>
@@ -35379,14 +35379,14 @@
       </c>
       <c r="B82" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.59999999999569986</v>
       </c>
       <c r="D82" s="17">
         <v>-0.35999999999957</v>
       </c>
       <c r="E82" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.40000000000430008</v>
       </c>
       <c r="G82" s="17">
         <v>-0.35999999999957</v>
@@ -35418,14 +35418,14 @@
       </c>
       <c r="B83" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.49999999999559991</v>
       </c>
       <c r="D83" s="17">
         <v>-0.34999999999956</v>
       </c>
       <c r="E83" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.50000000000440004</v>
       </c>
       <c r="G83" s="17">
         <v>-0.34999999999956</v>
@@ -35457,14 +35457,14 @@
       </c>
       <c r="B84" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3999999999954999</v>
       </c>
       <c r="D84" s="17">
         <v>-0.33999999999955</v>
       </c>
       <c r="E84" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.60000000000450004</v>
       </c>
       <c r="G84" s="17">
         <v>-0.33999999999955</v>
@@ -35496,14 +35496,14 @@
       </c>
       <c r="B85" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29999999999539995</v>
       </c>
       <c r="D85" s="17">
         <v>-0.32999999999953999</v>
       </c>
       <c r="E85" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.70000000000460005</v>
       </c>
       <c r="G85" s="17">
         <v>-0.32999999999953999</v>
@@ -35535,14 +35535,14 @@
       </c>
       <c r="B86" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19999999999529997</v>
       </c>
       <c r="D86" s="17">
         <v>-0.31999999999952999</v>
       </c>
       <c r="E86" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.80000000000469995</v>
       </c>
       <c r="G86" s="17">
         <v>-0.31999999999952999</v>
@@ -35574,14 +35574,14 @@
       </c>
       <c r="B87" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9999999995199998E-2</v>
       </c>
       <c r="D87" s="17">
         <v>-0.30999999999951999</v>
       </c>
       <c r="E87" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.90000000000479996</v>
       </c>
       <c r="G87" s="17">
         <v>-0.30999999999951999</v>
@@ -35932,7 +35932,7 @@
       </c>
       <c r="E96" s="16">
         <f t="shared" si="1"/>
-        <v>0.97777777777524455</v>
+        <v>1</v>
       </c>
       <c r="G96" s="17">
         <v>-0.21999999999943001</v>
@@ -35971,7 +35971,7 @@
       </c>
       <c r="E97" s="16">
         <f t="shared" si="1"/>
-        <v>0.93333333333075563</v>
+        <v>1</v>
       </c>
       <c r="G97" s="17">
         <v>-0.20999999999942001</v>
@@ -36010,7 +36010,7 @@
       </c>
       <c r="E98" s="16">
         <f t="shared" si="1"/>
-        <v>0.88888888888626671</v>
+        <v>1</v>
       </c>
       <c r="G98" s="17">
         <v>-0.19999999999941001</v>
@@ -36049,7 +36049,7 @@
       </c>
       <c r="E99" s="16">
         <f t="shared" si="1"/>
-        <v>0.84444444444177791</v>
+        <v>1</v>
       </c>
       <c r="G99" s="17">
         <v>-0.18999999999940001</v>
@@ -36088,7 +36088,7 @@
       </c>
       <c r="E100" s="16">
         <f t="shared" si="1"/>
-        <v>0.79999999999728899</v>
+        <v>1</v>
       </c>
       <c r="G100" s="17">
         <v>-0.17999999999939001</v>
@@ -36127,7 +36127,7 @@
       </c>
       <c r="E101" s="16">
         <f t="shared" si="1"/>
-        <v>0.75555555555280007</v>
+        <v>1</v>
       </c>
       <c r="G101" s="17">
         <v>-0.16999999999938001</v>
@@ -36166,7 +36166,7 @@
       </c>
       <c r="E102" s="16">
         <f t="shared" si="1"/>
-        <v>0.71111111110831116</v>
+        <v>1</v>
       </c>
       <c r="G102" s="17">
         <v>-0.15999999999937001</v>
@@ -36205,7 +36205,7 @@
       </c>
       <c r="E103" s="16">
         <f t="shared" si="1"/>
-        <v>0.66666666666382224</v>
+        <v>1</v>
       </c>
       <c r="G103" s="17">
         <v>-0.14999999999936001</v>
@@ -36244,7 +36244,7 @@
       </c>
       <c r="E104" s="16">
         <f t="shared" ref="E104:E167" si="6">IF(OR(D104&lt;=$B$8,D104&gt;=$E$8),0,IF(AND(D104&gt;=$C$8,D104&lt;=$D$8),1,IF(AND(D104&gt;=$B$8,D104&lt;=$C$8),$G$8*(D104-$B$8),IF(AND(D104&gt;=$D$8,D104&lt;=$E$8),$H$8*(D104-$E$8)))))</f>
-        <v>0.62222222221933343</v>
+        <v>1</v>
       </c>
       <c r="G104" s="17">
         <v>-0.13999999999935001</v>
@@ -36283,7 +36283,7 @@
       </c>
       <c r="E105" s="16">
         <f t="shared" si="6"/>
-        <v>0.57777777777484451</v>
+        <v>1</v>
       </c>
       <c r="G105" s="17">
         <v>-0.12999999999934</v>
@@ -36322,7 +36322,7 @@
       </c>
       <c r="E106" s="16">
         <f t="shared" si="6"/>
-        <v>0.5333333333303556</v>
+        <v>1</v>
       </c>
       <c r="G106" s="17">
         <v>-0.11999999999933</v>
@@ -36361,7 +36361,7 @@
       </c>
       <c r="E107" s="16">
         <f t="shared" si="6"/>
-        <v>0.48888888888586668</v>
+        <v>1</v>
       </c>
       <c r="G107" s="17">
         <v>-0.10999999999932</v>
@@ -36400,14 +36400,14 @@
       </c>
       <c r="E108" s="16">
         <f t="shared" si="6"/>
-        <v>0.44444444444137826</v>
+        <v>0.99999999999310096</v>
       </c>
       <c r="G108" s="17">
         <v>-9.9999999999310099E-2</v>
       </c>
       <c r="H108" s="15">
         <f t="shared" si="7"/>
-        <v>9.8558066469982858E-12</v>
+        <v>6.8990646528988009E-12</v>
       </c>
       <c r="I108" s="14"/>
       <c r="J108" s="17">
@@ -36439,14 +36439,14 @@
       </c>
       <c r="E109" s="16">
         <f t="shared" si="6"/>
-        <v>0.39999999999688934</v>
+        <v>0.89999999999300095</v>
       </c>
       <c r="G109" s="17">
         <v>-8.9999999999300098E-2</v>
       </c>
       <c r="H109" s="15">
         <f t="shared" si="7"/>
-        <v>0.14285714286714152</v>
+        <v>0.10000000000699907</v>
       </c>
       <c r="I109" s="14"/>
       <c r="J109" s="17">
@@ -36478,14 +36478,14 @@
       </c>
       <c r="E110" s="16">
         <f t="shared" si="6"/>
-        <v>0.35555555555240043</v>
+        <v>0.79999999999290095</v>
       </c>
       <c r="G110" s="17">
         <v>-7.9999999999290097E-2</v>
       </c>
       <c r="H110" s="15">
         <f t="shared" si="7"/>
-        <v>0.28571428572442725</v>
+        <v>0.20000000000709908</v>
       </c>
       <c r="I110" s="14"/>
       <c r="J110" s="17">
@@ -36517,14 +36517,14 @@
       </c>
       <c r="E111" s="16">
         <f t="shared" si="6"/>
-        <v>0.31111111110791156</v>
+        <v>0.69999999999280094</v>
       </c>
       <c r="G111" s="17">
         <v>-6.9999999999280096E-2</v>
       </c>
       <c r="H111" s="15">
         <f t="shared" si="7"/>
-        <v>0.42857142858171293</v>
+        <v>0.30000000000719906</v>
       </c>
       <c r="I111" s="14"/>
       <c r="J111" s="17">
@@ -36556,14 +36556,14 @@
       </c>
       <c r="E112" s="16">
         <f t="shared" si="6"/>
-        <v>0.2666666666634227</v>
+        <v>0.59999999999270104</v>
       </c>
       <c r="G112" s="17">
         <v>-5.9999999999270102E-2</v>
       </c>
       <c r="H112" s="15">
         <f t="shared" si="7"/>
-        <v>0.57142857143899861</v>
+        <v>0.40000000000729902</v>
       </c>
       <c r="I112" s="14"/>
       <c r="J112" s="17">
@@ -36595,14 +36595,14 @@
       </c>
       <c r="E113" s="16">
         <f t="shared" si="6"/>
-        <v>0.22222222221893378</v>
+        <v>0.49999999999260103</v>
       </c>
       <c r="G113" s="17">
         <v>-4.9999999999260102E-2</v>
       </c>
       <c r="H113" s="15">
         <f t="shared" si="7"/>
-        <v>0.71428571429628429</v>
+        <v>0.50000000000739908</v>
       </c>
       <c r="I113" s="14"/>
       <c r="J113" s="17">
@@ -36634,14 +36634,14 @@
       </c>
       <c r="E114" s="16">
         <f t="shared" si="6"/>
-        <v>0.1777777777744449</v>
+        <v>0.39999999999250102</v>
       </c>
       <c r="G114" s="17">
         <v>-3.9999999999250101E-2</v>
       </c>
       <c r="H114" s="15">
         <f t="shared" si="7"/>
-        <v>0.85714285715356997</v>
+        <v>0.60000000000749909</v>
       </c>
       <c r="I114" s="14"/>
       <c r="J114" s="17">
@@ -36673,14 +36673,14 @@
       </c>
       <c r="E115" s="16">
         <f t="shared" si="6"/>
-        <v>0.13333333332995601</v>
+        <v>0.29999999999240101</v>
       </c>
       <c r="G115" s="17">
         <v>-2.99999999992401E-2</v>
       </c>
       <c r="H115" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.70000000000759899</v>
       </c>
       <c r="I115" s="14"/>
       <c r="J115" s="17">
@@ -36712,14 +36712,14 @@
       </c>
       <c r="E116" s="16">
         <f t="shared" si="6"/>
-        <v>8.8888888885467116E-2</v>
+        <v>0.199999999992301</v>
       </c>
       <c r="G116" s="17">
         <v>-1.9999999999230099E-2</v>
       </c>
       <c r="H116" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.800000000007699</v>
       </c>
       <c r="I116" s="14"/>
       <c r="J116" s="17">
@@ -36751,14 +36751,14 @@
       </c>
       <c r="E117" s="16">
         <f t="shared" si="6"/>
-        <v>4.4444444440978136E-2</v>
+        <v>9.99999999922008E-2</v>
       </c>
       <c r="G117" s="17">
         <v>-9.9999999992200807E-3</v>
       </c>
       <c r="H117" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.90000000000779923</v>
       </c>
       <c r="J117" s="17">
         <v>-9.9999999992200807E-3</v>
@@ -36795,7 +36795,7 @@
       </c>
       <c r="H118" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99999999999210076</v>
       </c>
       <c r="J118" s="17">
         <v>7.8992368202079898E-13</v>
@@ -36832,7 +36832,7 @@
       </c>
       <c r="H119" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.89999999999200109</v>
       </c>
       <c r="J119" s="17">
         <v>1.00000000007999E-2</v>
@@ -36869,7 +36869,7 @@
       </c>
       <c r="H120" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.79999999999190108</v>
       </c>
       <c r="J120" s="17">
         <v>2.0000000000809901E-2</v>
@@ -36906,7 +36906,7 @@
       </c>
       <c r="H121" s="15">
         <f t="shared" si="7"/>
-        <v>0.99999999998828715</v>
+        <v>0.69999999999180107</v>
       </c>
       <c r="J121" s="17">
         <v>3.0000000000819899E-2</v>
@@ -36943,7 +36943,7 @@
       </c>
       <c r="H122" s="15">
         <f t="shared" si="7"/>
-        <v>0.85714285713100147</v>
+        <v>0.59999999999170106</v>
       </c>
       <c r="J122" s="17">
         <v>4.0000000000829899E-2</v>
@@ -36980,7 +36980,7 @@
       </c>
       <c r="H123" s="15">
         <f t="shared" si="7"/>
-        <v>0.71428571427371579</v>
+        <v>0.49999999999160105</v>
       </c>
       <c r="J123" s="17">
         <v>5.00000000008399E-2</v>
@@ -37017,7 +37017,7 @@
       </c>
       <c r="H124" s="15">
         <f t="shared" si="7"/>
-        <v>0.57142857141643</v>
+        <v>0.39999999999150104</v>
       </c>
       <c r="J124" s="17">
         <v>6.0000000000849901E-2</v>
@@ -37054,7 +37054,7 @@
       </c>
       <c r="H125" s="15">
         <f t="shared" si="7"/>
-        <v>0.42857142855914432</v>
+        <v>0.29999999999140103</v>
       </c>
       <c r="J125" s="17">
         <v>7.0000000000859902E-2</v>
@@ -37091,7 +37091,7 @@
       </c>
       <c r="H126" s="15">
         <f t="shared" si="7"/>
-        <v>0.28571428570185858</v>
+        <v>0.19999999999130103</v>
       </c>
       <c r="J126" s="17">
         <v>8.0000000000869903E-2</v>
@@ -37128,7 +37128,7 @@
       </c>
       <c r="H127" s="15">
         <f t="shared" si="7"/>
-        <v>0.14285714284457288</v>
+        <v>9.9999999991201016E-2</v>
       </c>
       <c r="J127" s="17">
         <v>9.0000000000879904E-2</v>
@@ -37912,14 +37912,14 @@
       </c>
       <c r="K148" s="15">
         <f t="shared" si="8"/>
-        <v>0.99999999999515543</v>
+        <v>0.99999999998909983</v>
       </c>
       <c r="M148" s="17">
         <v>0.30000000000109001</v>
       </c>
       <c r="N148" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.0900169655769784E-11</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
@@ -37949,14 +37949,14 @@
       </c>
       <c r="K149" s="15">
         <f t="shared" si="8"/>
-        <v>0.95555555555066662</v>
+        <v>0.89999999998899982</v>
       </c>
       <c r="M149" s="17">
         <v>0.31000000000110001</v>
       </c>
       <c r="N149" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.10000000001100014</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -37987,7 +37987,7 @@
       </c>
       <c r="K150" s="15">
         <f t="shared" si="8"/>
-        <v>0.91111111110617771</v>
+        <v>0.79999999998889981</v>
       </c>
       <c r="L150" s="14"/>
       <c r="M150" s="17">
@@ -37995,7 +37995,7 @@
       </c>
       <c r="N150" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.2000000000111001</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -38026,7 +38026,7 @@
       </c>
       <c r="K151" s="15">
         <f t="shared" si="8"/>
-        <v>0.86666666666168879</v>
+        <v>0.69999999998879991</v>
       </c>
       <c r="L151" s="14"/>
       <c r="M151" s="17">
@@ -38034,7 +38034,7 @@
       </c>
       <c r="N151" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.30000000001120009</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -38065,7 +38065,7 @@
       </c>
       <c r="K152" s="15">
         <f t="shared" si="8"/>
-        <v>0.82222222221719998</v>
+        <v>0.59999999998869991</v>
       </c>
       <c r="L152" s="14"/>
       <c r="M152" s="17">
@@ -38073,7 +38073,7 @@
       </c>
       <c r="N152" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.40000000001130004</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
@@ -38104,7 +38104,7 @@
       </c>
       <c r="K153" s="15">
         <f t="shared" si="8"/>
-        <v>0.77777777777271107</v>
+        <v>0.49999999998859995</v>
       </c>
       <c r="L153" s="14"/>
       <c r="M153" s="17">
@@ -38112,7 +38112,7 @@
       </c>
       <c r="N153" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.50000000001139999</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -38143,7 +38143,7 @@
       </c>
       <c r="K154" s="15">
         <f t="shared" si="8"/>
-        <v>0.73333333332822215</v>
+        <v>0.39999999998849994</v>
       </c>
       <c r="L154" s="14"/>
       <c r="M154" s="17">
@@ -38151,7 +38151,7 @@
       </c>
       <c r="N154" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.6000000000115</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -38182,7 +38182,7 @@
       </c>
       <c r="K155" s="15">
         <f t="shared" si="8"/>
-        <v>0.68888888888373323</v>
+        <v>0.29999999998839999</v>
       </c>
       <c r="L155" s="14"/>
       <c r="M155" s="17">
@@ -38190,7 +38190,7 @@
       </c>
       <c r="N155" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.70000000001160001</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -38221,7 +38221,7 @@
       </c>
       <c r="K156" s="15">
         <f t="shared" si="8"/>
-        <v>0.64444444443924442</v>
+        <v>0.19999999998830001</v>
       </c>
       <c r="L156" s="14"/>
       <c r="M156" s="17">
@@ -38229,7 +38229,7 @@
       </c>
       <c r="N156" s="7">
         <f t="shared" si="9"/>
-        <v>3.333333334113342E-2</v>
+        <v>0.80000000001169991</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
@@ -38260,7 +38260,7 @@
       </c>
       <c r="K157" s="15">
         <f t="shared" si="8"/>
-        <v>0.59999999999475551</v>
+        <v>9.9999999988200042E-2</v>
       </c>
       <c r="L157" s="14"/>
       <c r="M157" s="17">
@@ -38268,7 +38268,7 @@
       </c>
       <c r="N157" s="7">
         <f t="shared" si="9"/>
-        <v>0.10000000000786675</v>
+        <v>0.90000000001179992</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -38299,7 +38299,7 @@
       </c>
       <c r="K158" s="15">
         <f t="shared" si="8"/>
-        <v>0.55555555555026659</v>
+        <v>0</v>
       </c>
       <c r="L158" s="14"/>
       <c r="M158" s="17">
@@ -38307,7 +38307,7 @@
       </c>
       <c r="N158" s="7">
         <f t="shared" si="9"/>
-        <v>0.16666666667460009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
@@ -38338,7 +38338,7 @@
       </c>
       <c r="K159" s="15">
         <f t="shared" si="8"/>
-        <v>0.51111111110577778</v>
+        <v>0</v>
       </c>
       <c r="L159" s="14"/>
       <c r="M159" s="17">
@@ -38346,7 +38346,7 @@
       </c>
       <c r="N159" s="7">
         <f t="shared" si="9"/>
-        <v>0.23333333334133341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
@@ -38377,7 +38377,7 @@
       </c>
       <c r="K160" s="15">
         <f t="shared" si="8"/>
-        <v>0.46666666666128886</v>
+        <v>0</v>
       </c>
       <c r="L160" s="14"/>
       <c r="M160" s="17">
@@ -38385,7 +38385,7 @@
       </c>
       <c r="N160" s="7">
         <f t="shared" si="9"/>
-        <v>0.30000000000806676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -38416,7 +38416,7 @@
       </c>
       <c r="K161" s="15">
         <f t="shared" si="8"/>
-        <v>0.42222222221679995</v>
+        <v>0</v>
       </c>
       <c r="L161" s="14"/>
       <c r="M161" s="17">
@@ -38424,7 +38424,7 @@
       </c>
       <c r="N161" s="7">
         <f t="shared" si="9"/>
-        <v>0.36666666667480008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -38455,7 +38455,7 @@
       </c>
       <c r="K162" s="15">
         <f t="shared" si="8"/>
-        <v>0.37777777777231109</v>
+        <v>0</v>
       </c>
       <c r="L162" s="14"/>
       <c r="M162" s="17">
@@ -38463,7 +38463,7 @@
       </c>
       <c r="N162" s="7">
         <f t="shared" si="9"/>
-        <v>0.4333333333415334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
@@ -38494,7 +38494,7 @@
       </c>
       <c r="K163" s="15">
         <f t="shared" si="8"/>
-        <v>0.33333333332782217</v>
+        <v>0</v>
       </c>
       <c r="L163" s="14"/>
       <c r="M163" s="17">
@@ -38502,7 +38502,7 @@
       </c>
       <c r="N163" s="7">
         <f t="shared" si="9"/>
-        <v>0.50000000000826672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -38533,7 +38533,7 @@
       </c>
       <c r="K164" s="15">
         <f t="shared" si="8"/>
-        <v>0.28888888888333331</v>
+        <v>0</v>
       </c>
       <c r="L164" s="14"/>
       <c r="M164" s="17">
@@ -38541,7 +38541,7 @@
       </c>
       <c r="N164" s="7">
         <f t="shared" si="9"/>
-        <v>0.5666666666750001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
@@ -38572,7 +38572,7 @@
       </c>
       <c r="K165" s="15">
         <f t="shared" si="8"/>
-        <v>0.24444444443884442</v>
+        <v>0</v>
       </c>
       <c r="L165" s="14"/>
       <c r="M165" s="17">
@@ -38580,7 +38580,7 @@
       </c>
       <c r="N165" s="7">
         <f t="shared" si="9"/>
-        <v>0.63333333334173336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
@@ -38611,7 +38611,7 @@
       </c>
       <c r="K166" s="15">
         <f t="shared" si="8"/>
-        <v>0.19999999999435553</v>
+        <v>0</v>
       </c>
       <c r="L166" s="14"/>
       <c r="M166" s="17">
@@ -38619,7 +38619,7 @@
       </c>
       <c r="N166" s="7">
         <f t="shared" si="9"/>
-        <v>0.70000000000846674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -38650,7 +38650,7 @@
       </c>
       <c r="K167" s="15">
         <f t="shared" si="8"/>
-        <v>0.15555555554986664</v>
+        <v>0</v>
       </c>
       <c r="L167" s="14"/>
       <c r="M167" s="17">
@@ -38658,7 +38658,7 @@
       </c>
       <c r="N167" s="7">
         <f t="shared" si="9"/>
-        <v>0.76666666667520011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
@@ -38689,7 +38689,7 @@
       </c>
       <c r="K168" s="15">
         <f t="shared" ref="K168:K198" si="13">IF(OR(J168&lt;=$B$10,J168&gt;=$E$10),0,IF(AND(J168&gt;=$C$10,J168&lt;=$D$10),1,IF(AND(J168&gt;=$B$10,J168&lt;=$C$10),$G$10*(J168-$B$10),IF(AND(J168&gt;=$D$10,J168&lt;=$E$10),$H$10*(J168-$E$10)))))</f>
-        <v>0.111111111105378</v>
+        <v>0</v>
       </c>
       <c r="L168" s="14"/>
       <c r="M168" s="17">
@@ -38697,7 +38697,7 @@
       </c>
       <c r="N168" s="7">
         <f t="shared" ref="N168:N198" si="14">IF(M168&lt;=$B$11,0,IF(M168&gt;=$C$11,1,$G$11*(M168-$B$11)))</f>
-        <v>0.83333333334193305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
@@ -38728,7 +38728,7 @@
       </c>
       <c r="K169" s="15">
         <f t="shared" si="13"/>
-        <v>6.6666666660889121E-2</v>
+        <v>0</v>
       </c>
       <c r="L169" s="14"/>
       <c r="M169" s="17">
@@ -38736,7 +38736,7 @@
       </c>
       <c r="N169" s="7">
         <f t="shared" si="14"/>
-        <v>0.90000000000866642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
@@ -38767,7 +38767,7 @@
       </c>
       <c r="K170" s="15">
         <f t="shared" si="13"/>
-        <v>2.2222222216400227E-2</v>
+        <v>0</v>
       </c>
       <c r="L170" s="14"/>
       <c r="M170" s="17">
@@ -38775,7 +38775,7 @@
       </c>
       <c r="N170" s="7">
         <f t="shared" si="14"/>
-        <v>0.96666666667539969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -40267,8 +40267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AA6EFE-CD62-433B-A946-8DC6807375C2}">
   <dimension ref="A1:N463"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40339,10 +40339,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
       <c r="C7" s="7">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -40358,7 +40358,7 @@
       </c>
       <c r="H7" s="9">
         <f>1/(B7-C7)</f>
-        <v>-20.000000000000004</v>
+        <v>-19.999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -40366,23 +40366,23 @@
         <v>16</v>
       </c>
       <c r="B8" s="7">
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
       <c r="C8" s="7">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="D8" s="7">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="E8" s="11">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1">
         <f>1/(C8-B8)</f>
-        <v>20.000000000000004</v>
+        <v>19.999999999999993</v>
       </c>
       <c r="H8" s="1">
         <f>1/(D8-E8)</f>
@@ -40394,16 +40394,16 @@
         <v>17</v>
       </c>
       <c r="B9" s="7">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="C9" s="11">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
         <v>0.05</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.1</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
@@ -40422,16 +40422,16 @@
         <v>18</v>
       </c>
       <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
         <v>0.05</v>
       </c>
-      <c r="C10" s="11">
-        <v>0.1</v>
-      </c>
       <c r="D10" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="11">
         <v>0.2</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.25</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
@@ -40442,7 +40442,7 @@
       </c>
       <c r="H10" s="1">
         <f>1/(D10-E10)</f>
-        <v>-20.000000000000004</v>
+        <v>-19.999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -40450,10 +40450,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="C11" s="11">
         <v>0.2</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.25</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -40466,7 +40466,7 @@
       </c>
       <c r="G11" s="1">
         <f>1/(C11-B11)</f>
-        <v>20.000000000000004</v>
+        <v>19.999999999999993</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -41751,14 +41751,14 @@
       </c>
       <c r="B69" s="10">
         <f t="shared" si="0"/>
-        <v>0.8999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D69" s="18">
         <v>-0.245</v>
       </c>
       <c r="E69" s="16">
         <f t="shared" si="1"/>
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G69" s="18">
         <v>-0.245</v>
@@ -41790,14 +41790,14 @@
       </c>
       <c r="B70" s="10">
         <f t="shared" si="0"/>
-        <v>0.79999999999999971</v>
+        <v>1</v>
       </c>
       <c r="D70" s="18">
         <v>-0.24</v>
       </c>
       <c r="E70" s="16">
         <f t="shared" si="1"/>
-        <v>0.20000000000000021</v>
+        <v>0</v>
       </c>
       <c r="G70" s="18">
         <v>-0.24</v>
@@ -41829,14 +41829,14 @@
       </c>
       <c r="B71" s="10">
         <f t="shared" si="0"/>
-        <v>0.69999999999999962</v>
+        <v>1</v>
       </c>
       <c r="D71" s="18">
         <v>-0.23499999999999999</v>
       </c>
       <c r="E71" s="16">
         <f t="shared" si="1"/>
-        <v>0.30000000000000032</v>
+        <v>0</v>
       </c>
       <c r="G71" s="18">
         <v>-0.23499999999999999</v>
@@ -41868,14 +41868,14 @@
       </c>
       <c r="B72" s="10">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>1</v>
       </c>
       <c r="D72" s="18">
         <v>-0.23</v>
       </c>
       <c r="E72" s="16">
         <f t="shared" si="1"/>
-        <v>0.39999999999999986</v>
+        <v>0</v>
       </c>
       <c r="G72" s="18">
         <v>-0.23</v>
@@ -41907,14 +41907,14 @@
       </c>
       <c r="B73" s="10">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D73" s="18">
         <v>-0.22500000000000001</v>
       </c>
       <c r="E73" s="16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G73" s="18">
         <v>-0.22500000000000001</v>
@@ -41946,14 +41946,14 @@
       </c>
       <c r="B74" s="10">
         <f t="shared" si="0"/>
-        <v>0.39999999999999986</v>
+        <v>1</v>
       </c>
       <c r="D74" s="18">
         <v>-0.22</v>
       </c>
       <c r="E74" s="16">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="G74" s="18">
         <v>-0.22</v>
@@ -41985,14 +41985,14 @@
       </c>
       <c r="B75" s="10">
         <f t="shared" si="0"/>
-        <v>0.29999999999999977</v>
+        <v>1</v>
       </c>
       <c r="D75" s="18">
         <v>-0.215</v>
       </c>
       <c r="E75" s="16">
         <f t="shared" si="1"/>
-        <v>0.70000000000000018</v>
+        <v>0</v>
       </c>
       <c r="G75" s="18">
         <v>-0.215</v>
@@ -42024,14 +42024,14 @@
       </c>
       <c r="B76" s="10">
         <f t="shared" si="0"/>
-        <v>0.19999999999999965</v>
+        <v>1</v>
       </c>
       <c r="D76" s="18">
         <v>-0.21</v>
       </c>
       <c r="E76" s="16">
         <f t="shared" si="1"/>
-        <v>0.80000000000000027</v>
+        <v>0</v>
       </c>
       <c r="G76" s="18">
         <v>-0.21</v>
@@ -42063,14 +42063,14 @@
       </c>
       <c r="B77" s="10">
         <f t="shared" si="0"/>
-        <v>9.9999999999999548E-2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="18">
         <v>-0.20499999999999999</v>
       </c>
       <c r="E77" s="16">
         <f t="shared" si="1"/>
-        <v>0.90000000000000036</v>
+        <v>0</v>
       </c>
       <c r="G77" s="18">
         <v>-0.20499999999999999</v>
@@ -42102,14 +42102,14 @@
       </c>
       <c r="B78" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="18">
         <v>-0.2</v>
       </c>
       <c r="E78" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="18">
         <v>-0.2</v>
@@ -42141,14 +42141,14 @@
       </c>
       <c r="B79" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="D79" s="18">
         <v>-0.19500000000000001</v>
       </c>
       <c r="E79" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.10000000000000005</v>
       </c>
       <c r="G79" s="18">
         <v>-0.19500000000000001</v>
@@ -42180,14 +42180,14 @@
       </c>
       <c r="B80" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="D80" s="18">
         <v>-0.19</v>
       </c>
       <c r="E80" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.20000000000000009</v>
       </c>
       <c r="G80" s="18">
         <v>-0.19</v>
@@ -42219,14 +42219,14 @@
       </c>
       <c r="B81" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.69999999999999984</v>
       </c>
       <c r="D81" s="18">
         <v>-0.185</v>
       </c>
       <c r="E81" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.30000000000000016</v>
       </c>
       <c r="G81" s="18">
         <v>-0.185</v>
@@ -42258,14 +42258,14 @@
       </c>
       <c r="B82" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.59999999999999976</v>
       </c>
       <c r="D82" s="18">
         <v>-0.18</v>
       </c>
       <c r="E82" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.40000000000000019</v>
       </c>
       <c r="G82" s="18">
         <v>-0.18</v>
@@ -42297,14 +42297,14 @@
       </c>
       <c r="B83" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.49999999999999972</v>
       </c>
       <c r="D83" s="18">
         <v>-0.17499999999999999</v>
       </c>
       <c r="E83" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.50000000000000022</v>
       </c>
       <c r="G83" s="18">
         <v>-0.17499999999999999</v>
@@ -42336,14 +42336,14 @@
       </c>
       <c r="B84" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.40000000000000019</v>
       </c>
       <c r="D84" s="18">
         <v>-0.17</v>
       </c>
       <c r="E84" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.59999999999999976</v>
       </c>
       <c r="G84" s="18">
         <v>-0.17</v>
@@ -42375,14 +42375,14 @@
       </c>
       <c r="B85" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30000000000000016</v>
       </c>
       <c r="D85" s="18">
         <v>-0.16500000000000001</v>
       </c>
       <c r="E85" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.69999999999999984</v>
       </c>
       <c r="G85" s="18">
         <v>-0.16500000000000001</v>
@@ -42414,14 +42414,14 @@
       </c>
       <c r="B86" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20000000000000009</v>
       </c>
       <c r="D86" s="18">
         <v>-0.16</v>
       </c>
       <c r="E86" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="G86" s="18">
         <v>-0.16</v>
@@ -42453,14 +42453,14 @@
       </c>
       <c r="B87" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10000000000000005</v>
       </c>
       <c r="D87" s="18">
         <v>-0.155</v>
       </c>
       <c r="E87" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G87" s="18">
         <v>-0.155</v>
@@ -42928,14 +42928,14 @@
       </c>
       <c r="E99" s="16">
         <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
+        <v>1</v>
       </c>
       <c r="G99" s="18">
         <v>-9.5000000000000001E-2</v>
       </c>
       <c r="H99" s="15">
         <f t="shared" si="2"/>
-        <v>0.10000000000000009</v>
+        <v>0</v>
       </c>
       <c r="I99" s="14"/>
       <c r="J99" s="18">
@@ -42967,14 +42967,14 @@
       </c>
       <c r="E100" s="16">
         <f t="shared" si="1"/>
-        <v>0.79999999999999982</v>
+        <v>1</v>
       </c>
       <c r="G100" s="18">
         <v>-0.09</v>
       </c>
       <c r="H100" s="15">
         <f t="shared" si="2"/>
-        <v>0.20000000000000018</v>
+        <v>0</v>
       </c>
       <c r="I100" s="14"/>
       <c r="J100" s="18">
@@ -43006,14 +43006,14 @@
       </c>
       <c r="E101" s="16">
         <f t="shared" si="1"/>
-        <v>0.70000000000000007</v>
+        <v>1</v>
       </c>
       <c r="G101" s="18">
         <v>-8.5000000000000006E-2</v>
       </c>
       <c r="H101" s="15">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I101" s="14"/>
       <c r="J101" s="18">
@@ -43045,14 +43045,14 @@
       </c>
       <c r="E102" s="16">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G102" s="18">
         <v>-0.08</v>
       </c>
       <c r="H102" s="15">
         <f t="shared" si="2"/>
-        <v>0.40000000000000008</v>
+        <v>0</v>
       </c>
       <c r="I102" s="14"/>
       <c r="J102" s="18">
@@ -43084,14 +43084,14 @@
       </c>
       <c r="E103" s="16">
         <f t="shared" si="1"/>
-        <v>0.49999999999999989</v>
+        <v>1</v>
       </c>
       <c r="G103" s="18">
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="H103" s="15">
         <f t="shared" si="2"/>
-        <v>0.50000000000000022</v>
+        <v>0</v>
       </c>
       <c r="I103" s="14"/>
       <c r="J103" s="18">
@@ -43123,14 +43123,14 @@
       </c>
       <c r="E104" s="16">
         <f t="shared" ref="E104:E167" si="6">IF(OR(D104&lt;=$B$8,D104&gt;=$E$8),0,IF(AND(D104&gt;=$C$8,D104&lt;=$D$8),1,IF(AND(D104&gt;=$B$8,D104&lt;=$C$8),$G$8*(D104-$B$8),IF(AND(D104&gt;=$D$8,D104&lt;=$E$8),$H$8*(D104-$E$8)))))</f>
-        <v>0.40000000000000008</v>
+        <v>1</v>
       </c>
       <c r="G104" s="18">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H104" s="15">
         <f t="shared" ref="H104:H167" si="7">IF(OR(G104&lt;=$B$9,G104&gt;=$E$9),0,IF(AND(G104&gt;=$C$9,G104&lt;=$D$9),1,IF(AND(G104&gt;=$B$9,G104&lt;=$C$9),$G$9*(G104-$B$9),IF(AND(G104&gt;=$D$9,G104&lt;=$E$9),$H$9*(G104-$E$9)))))</f>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I104" s="14"/>
       <c r="J104" s="18">
@@ -43162,14 +43162,14 @@
       </c>
       <c r="E105" s="16">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G105" s="18">
         <v>-6.5000000000000002E-2</v>
       </c>
       <c r="H105" s="15">
         <f t="shared" si="7"/>
-        <v>0.70000000000000007</v>
+        <v>0</v>
       </c>
       <c r="I105" s="14"/>
       <c r="J105" s="18">
@@ -43201,14 +43201,14 @@
       </c>
       <c r="E106" s="16">
         <f t="shared" si="6"/>
-        <v>0.1999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G106" s="18">
         <v>-0.06</v>
       </c>
       <c r="H106" s="15">
         <f t="shared" si="7"/>
-        <v>0.80000000000000016</v>
+        <v>0</v>
       </c>
       <c r="I106" s="14"/>
       <c r="J106" s="18">
@@ -43240,14 +43240,14 @@
       </c>
       <c r="E107" s="16">
         <f t="shared" si="6"/>
-        <v>9.999999999999995E-2</v>
+        <v>1</v>
       </c>
       <c r="G107" s="18">
         <v>-5.5E-2</v>
       </c>
       <c r="H107" s="15">
         <f t="shared" si="7"/>
-        <v>0.90000000000000013</v>
+        <v>0</v>
       </c>
       <c r="I107" s="14"/>
       <c r="J107" s="18">
@@ -43279,14 +43279,14 @@
       </c>
       <c r="E108" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="18">
         <v>-0.05</v>
       </c>
       <c r="H108" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" s="14"/>
       <c r="J108" s="18">
@@ -43318,14 +43318,14 @@
       </c>
       <c r="E109" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G109" s="18">
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="H109" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="I109" s="14"/>
       <c r="J109" s="18">
@@ -43357,14 +43357,14 @@
       </c>
       <c r="E110" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G110" s="18">
         <v>-0.04</v>
       </c>
       <c r="H110" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="I110" s="14"/>
       <c r="J110" s="18">
@@ -43396,14 +43396,14 @@
       </c>
       <c r="E111" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="G111" s="18">
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="H111" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I111" s="14"/>
       <c r="J111" s="18">
@@ -43435,14 +43435,14 @@
       </c>
       <c r="E112" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G112" s="18">
         <v>-0.03</v>
       </c>
       <c r="H112" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="I112" s="14"/>
       <c r="J112" s="18">
@@ -43474,14 +43474,14 @@
       </c>
       <c r="E113" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G113" s="18">
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="H113" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I113" s="14"/>
       <c r="J113" s="18">
@@ -43513,14 +43513,14 @@
       </c>
       <c r="E114" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G114" s="18">
         <v>-0.02</v>
       </c>
       <c r="H114" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I114" s="14"/>
       <c r="J114" s="18">
@@ -43552,14 +43552,14 @@
       </c>
       <c r="E115" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G115" s="18">
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="H115" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="I115" s="14"/>
       <c r="J115" s="18">
@@ -43591,14 +43591,14 @@
       </c>
       <c r="E116" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G116" s="18">
         <v>-0.01</v>
       </c>
       <c r="H116" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I116" s="14"/>
       <c r="J116" s="18">
@@ -43630,14 +43630,14 @@
       </c>
       <c r="E117" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G117" s="18">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H117" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="J117" s="18">
         <v>-5.0000000000000001E-3</v>
@@ -43711,14 +43711,14 @@
       </c>
       <c r="H119" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="J119" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K119" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M119" s="18">
         <v>5.0000000000000001E-3</v>
@@ -43748,14 +43748,14 @@
       </c>
       <c r="H120" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.80000000000000093</v>
       </c>
       <c r="J120" s="18">
         <v>9.9999999999999499E-3</v>
       </c>
       <c r="K120" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.19999999999999901</v>
       </c>
       <c r="M120" s="18">
         <v>9.9999999999999499E-3</v>
@@ -43785,14 +43785,14 @@
       </c>
       <c r="H121" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J121" s="18">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K121" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M121" s="18">
         <v>1.4999999999999999E-2</v>
@@ -43822,14 +43822,14 @@
       </c>
       <c r="H122" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="J122" s="18">
         <v>0.02</v>
       </c>
       <c r="K122" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M122" s="18">
         <v>0.02</v>
@@ -43859,14 +43859,14 @@
       </c>
       <c r="H123" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J123" s="18">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K123" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M123" s="18">
         <v>2.5000000000000001E-2</v>
@@ -43896,14 +43896,14 @@
       </c>
       <c r="H124" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="J124" s="18">
         <v>0.03</v>
       </c>
       <c r="K124" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M124" s="18">
         <v>0.03</v>
@@ -43933,14 +43933,14 @@
       </c>
       <c r="H125" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J125" s="18">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K125" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="M125" s="18">
         <v>3.5000000000000003E-2</v>
@@ -43970,14 +43970,14 @@
       </c>
       <c r="H126" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="J126" s="18">
         <v>0.04</v>
       </c>
       <c r="K126" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M126" s="18">
         <v>0.04</v>
@@ -44007,14 +44007,14 @@
       </c>
       <c r="H127" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="J127" s="18">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K127" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="M127" s="18">
         <v>4.4999999999999998E-2</v>
@@ -44044,14 +44044,14 @@
       </c>
       <c r="H128" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" s="18">
         <v>0.05</v>
       </c>
       <c r="K128" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" s="18">
         <v>0.05</v>
@@ -44081,14 +44081,14 @@
       </c>
       <c r="H129" s="15">
         <f t="shared" si="7"/>
-        <v>0.90000000000000013</v>
+        <v>0</v>
       </c>
       <c r="J129" s="18">
         <v>5.5E-2</v>
       </c>
       <c r="K129" s="15">
         <f t="shared" si="8"/>
-        <v>9.999999999999995E-2</v>
+        <v>1</v>
       </c>
       <c r="M129" s="18">
         <v>5.5E-2</v>
@@ -44118,14 +44118,14 @@
       </c>
       <c r="H130" s="15">
         <f t="shared" si="7"/>
-        <v>0.80000000000000016</v>
+        <v>0</v>
       </c>
       <c r="J130" s="18">
         <v>0.06</v>
       </c>
       <c r="K130" s="15">
         <f t="shared" si="8"/>
-        <v>0.1999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M130" s="18">
         <v>0.06</v>
@@ -44155,14 +44155,14 @@
       </c>
       <c r="H131" s="15">
         <f t="shared" si="7"/>
-        <v>0.70000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J131" s="18">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K131" s="15">
         <f t="shared" si="8"/>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="M131" s="18">
         <v>6.5000000000000002E-2</v>
@@ -44192,14 +44192,14 @@
       </c>
       <c r="H132" s="15">
         <f t="shared" si="7"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J132" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K132" s="15">
         <f t="shared" si="8"/>
-        <v>0.40000000000000008</v>
+        <v>1</v>
       </c>
       <c r="M132" s="18">
         <v>7.0000000000000007E-2</v>
@@ -44229,14 +44229,14 @@
       </c>
       <c r="H133" s="15">
         <f t="shared" si="7"/>
-        <v>0.50000000000000022</v>
+        <v>0</v>
       </c>
       <c r="J133" s="18">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K133" s="15">
         <f t="shared" si="8"/>
-        <v>0.49999999999999989</v>
+        <v>1</v>
       </c>
       <c r="M133" s="18">
         <v>7.4999999999999997E-2</v>
@@ -44266,14 +44266,14 @@
       </c>
       <c r="H134" s="15">
         <f t="shared" si="7"/>
-        <v>0.40000000000000008</v>
+        <v>0</v>
       </c>
       <c r="J134" s="18">
         <v>0.08</v>
       </c>
       <c r="K134" s="15">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M134" s="18">
         <v>0.08</v>
@@ -44303,14 +44303,14 @@
       </c>
       <c r="H135" s="15">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J135" s="18">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="K135" s="15">
         <f t="shared" si="8"/>
-        <v>0.70000000000000007</v>
+        <v>1</v>
       </c>
       <c r="M135" s="18">
         <v>8.5000000000000006E-2</v>
@@ -44340,14 +44340,14 @@
       </c>
       <c r="H136" s="15">
         <f t="shared" si="7"/>
-        <v>0.20000000000000018</v>
+        <v>0</v>
       </c>
       <c r="J136" s="18">
         <v>0.09</v>
       </c>
       <c r="K136" s="15">
         <f t="shared" si="8"/>
-        <v>0.79999999999999982</v>
+        <v>1</v>
       </c>
       <c r="M136" s="18">
         <v>0.09</v>
@@ -44377,14 +44377,14 @@
       </c>
       <c r="H137" s="15">
         <f t="shared" si="7"/>
-        <v>0.10000000000000009</v>
+        <v>0</v>
       </c>
       <c r="J137" s="18">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="K137" s="15">
         <f t="shared" si="8"/>
-        <v>0.89999999999999991</v>
+        <v>1</v>
       </c>
       <c r="M137" s="18">
         <v>9.5000000000000001E-2</v>
@@ -44828,14 +44828,14 @@
       </c>
       <c r="K149" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="M149" s="18">
         <v>0.155</v>
       </c>
       <c r="N149" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.10000000000000005</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -44866,7 +44866,7 @@
       </c>
       <c r="K150" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="L150" s="14"/>
       <c r="M150" s="18">
@@ -44874,7 +44874,7 @@
       </c>
       <c r="N150" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.20000000000000009</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -44905,7 +44905,7 @@
       </c>
       <c r="K151" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.69999999999997986</v>
       </c>
       <c r="L151" s="14"/>
       <c r="M151" s="18">
@@ -44913,7 +44913,7 @@
       </c>
       <c r="N151" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.30000000000002014</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -44944,7 +44944,7 @@
       </c>
       <c r="K152" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.59999999999997977</v>
       </c>
       <c r="L152" s="14"/>
       <c r="M152" s="18">
@@ -44952,7 +44952,7 @@
       </c>
       <c r="N152" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.40000000000002017</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
@@ -44983,7 +44983,7 @@
       </c>
       <c r="K153" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.49999999999998029</v>
       </c>
       <c r="L153" s="14"/>
       <c r="M153" s="18">
@@ -44991,7 +44991,7 @@
       </c>
       <c r="N153" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.50000000000001965</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -45022,7 +45022,7 @@
       </c>
       <c r="K154" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.3999999999999802</v>
       </c>
       <c r="L154" s="14"/>
       <c r="M154" s="18">
@@ -45030,7 +45030,7 @@
       </c>
       <c r="N154" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.60000000000001974</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -45061,7 +45061,7 @@
       </c>
       <c r="K155" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.29999999999998017</v>
       </c>
       <c r="L155" s="14"/>
       <c r="M155" s="18">
@@ -45069,7 +45069,7 @@
       </c>
       <c r="N155" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.70000000000001983</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -45100,7 +45100,7 @@
       </c>
       <c r="K156" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.19999999999998011</v>
       </c>
       <c r="L156" s="14"/>
       <c r="M156" s="18">
@@ -45108,7 +45108,7 @@
       </c>
       <c r="N156" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.80000000000001981</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
@@ -45139,7 +45139,7 @@
       </c>
       <c r="K157" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>9.9999999999980063E-2</v>
       </c>
       <c r="L157" s="14"/>
       <c r="M157" s="18">
@@ -45147,7 +45147,7 @@
       </c>
       <c r="N157" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.9000000000000199</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -45178,7 +45178,7 @@
       </c>
       <c r="K158" s="15">
         <f t="shared" si="8"/>
-        <v>0.99999999999998002</v>
+        <v>0</v>
       </c>
       <c r="L158" s="14"/>
       <c r="M158" s="18">
@@ -45186,7 +45186,7 @@
       </c>
       <c r="N158" s="7">
         <f t="shared" si="9"/>
-        <v>1.9984014443252821E-14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
@@ -45217,7 +45217,7 @@
       </c>
       <c r="K159" s="15">
         <f t="shared" si="8"/>
-        <v>0.89999999999998037</v>
+        <v>0</v>
       </c>
       <c r="L159" s="14"/>
       <c r="M159" s="18">
@@ -45225,7 +45225,7 @@
       </c>
       <c r="N159" s="7">
         <f t="shared" si="9"/>
-        <v>0.10000000000001953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
@@ -45256,7 +45256,7 @@
       </c>
       <c r="K160" s="15">
         <f t="shared" si="8"/>
-        <v>0.79999999999998028</v>
+        <v>0</v>
       </c>
       <c r="L160" s="14"/>
       <c r="M160" s="18">
@@ -45264,7 +45264,7 @@
       </c>
       <c r="N160" s="7">
         <f t="shared" si="9"/>
-        <v>0.20000000000001963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -45295,7 +45295,7 @@
       </c>
       <c r="K161" s="15">
         <f t="shared" si="8"/>
-        <v>0.69999999999998019</v>
+        <v>0</v>
       </c>
       <c r="L161" s="14"/>
       <c r="M161" s="18">
@@ -45303,7 +45303,7 @@
       </c>
       <c r="N161" s="7">
         <f t="shared" si="9"/>
-        <v>0.30000000000001975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -45334,7 +45334,7 @@
       </c>
       <c r="K162" s="15">
         <f t="shared" si="8"/>
-        <v>0.5999999999999801</v>
+        <v>0</v>
       </c>
       <c r="L162" s="14"/>
       <c r="M162" s="18">
@@ -45342,7 +45342,7 @@
       </c>
       <c r="N162" s="7">
         <f t="shared" si="9"/>
-        <v>0.40000000000001984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
@@ -45373,7 +45373,7 @@
       </c>
       <c r="K163" s="15">
         <f t="shared" si="8"/>
-        <v>0.49999999999998002</v>
+        <v>0</v>
       </c>
       <c r="L163" s="14"/>
       <c r="M163" s="18">
@@ -45381,7 +45381,7 @@
       </c>
       <c r="N163" s="7">
         <f t="shared" si="9"/>
-        <v>0.50000000000001998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -45412,7 +45412,7 @@
       </c>
       <c r="K164" s="15">
         <f t="shared" si="8"/>
-        <v>0.39999999999997987</v>
+        <v>0</v>
       </c>
       <c r="L164" s="14"/>
       <c r="M164" s="18">
@@ -45420,7 +45420,7 @@
       </c>
       <c r="N164" s="7">
         <f t="shared" si="9"/>
-        <v>0.60000000000002007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
@@ -45451,7 +45451,7 @@
       </c>
       <c r="K165" s="15">
         <f t="shared" si="8"/>
-        <v>0.29999999999997978</v>
+        <v>0</v>
       </c>
       <c r="L165" s="14"/>
       <c r="M165" s="18">
@@ -45459,7 +45459,7 @@
       </c>
       <c r="N165" s="7">
         <f t="shared" si="9"/>
-        <v>0.70000000000002016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
@@ -45490,7 +45490,7 @@
       </c>
       <c r="K166" s="15">
         <f t="shared" si="8"/>
-        <v>0.19999999999998022</v>
+        <v>0</v>
       </c>
       <c r="L166" s="14"/>
       <c r="M166" s="18">
@@ -45498,7 +45498,7 @@
       </c>
       <c r="N166" s="7">
         <f t="shared" si="9"/>
-        <v>0.8000000000000197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -45529,7 +45529,7 @@
       </c>
       <c r="K167" s="15">
         <f t="shared" si="8"/>
-        <v>9.9999999999980119E-2</v>
+        <v>0</v>
       </c>
       <c r="L167" s="14"/>
       <c r="M167" s="18">
@@ -45537,7 +45537,7 @@
       </c>
       <c r="N167" s="7">
         <f t="shared" si="9"/>
-        <v>0.90000000000001978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">

--- a/Fuzzy_Sets_Viewer (2).xlsx
+++ b/Fuzzy_Sets_Viewer (2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\AI -  Assn2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\AIAss2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC974A0A-EC9E-406E-A7E0-31BF003F6AFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3E5DB7-1EC5-4165-A46A-7A4A96E0B5B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11100" yWindow="1140" windowWidth="11112" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X" sheetId="3" r:id="rId1"/>
@@ -781,58 +781,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0.87499999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0.62499999999999978</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0.50000000000000022</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0.37500000000000022</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>0.12500000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.90000000000000036</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.80000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.49999999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.40000000000000024</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3000000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10000000000001988</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.9984014443252821E-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -1597,58 +1597,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.9999999999979911E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.19999999999998003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.29999999999998012</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.39999999999998026</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.4999999999999799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.59999999999997999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.69999999999998008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.79999999999998028</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.89999999999998037</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.99999999999998002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1</c:v>
+                  <c:v>0.12499999999997509</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1</c:v>
+                  <c:v>0.24999999999997516</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1</c:v>
+                  <c:v>0.37499999999997524</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1</c:v>
+                  <c:v>0.4999999999999753</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1</c:v>
+                  <c:v>0.6249999999999748</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1</c:v>
+                  <c:v>0.74999999999997491</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1</c:v>
+                  <c:v>0.87499999999997491</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999997502</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1</c:v>
@@ -2089,112 +2089,112 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.12500000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.37500000000000022</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.49999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.62499999999999978</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.87499999999999989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.9999999999999672E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19999999999999979</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29999999999999988</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.50000000000000011</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.59999999999999976</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.69999999999999984</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.89999999999998015</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99999999999998002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0.9285714285714427</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>0.85714285714287153</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>0.78571428571430002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>0.71428571428572862</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0.64285714285715712</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>0.57142857142858572</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>0.50000000000001432</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>0.42857142857144281</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.90000000000002001</c:v>
+                  <c:v>0.35714285714287142</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.80000000000002003</c:v>
+                  <c:v>0.28571428571430002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.70000000000002005</c:v>
+                  <c:v>0.2142857142857286</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.60000000000001996</c:v>
+                  <c:v>0.14285714285715712</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.50000000000001998</c:v>
+                  <c:v>7.1428571428585691E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.40000000000002001</c:v>
+                  <c:v>1.4274296030894871E-14</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.30000000000001997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.20000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.10000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.9539925233402761E-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0</c:v>
@@ -2797,52 +2797,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>7.1428571428557214E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285712856</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.21428571428570004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.28571428571427154</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.35714285714284288</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.42857142857141439</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.49999999999998568</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.57142857142855719</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.12499999999997499</c:v>
+                  <c:v>0.64285714285712858</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.24999999999997496</c:v>
+                  <c:v>0.71428571428569998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.37499999999997491</c:v>
+                  <c:v>0.78571428571427149</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.49999999999997502</c:v>
+                  <c:v>0.857142857142843</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.62499999999997502</c:v>
+                  <c:v>0.92857142857141439</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.74999999999997502</c:v>
+                  <c:v>0.99999999999998568</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.87499999999997491</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99999999999997513</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1</c:v>
@@ -2857,52 +2857,52 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.83333333333336657</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.66666666666670005</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.50000000000003331</c:v>
+                  <c:v>0.92857142857144293</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.33333333333336673</c:v>
+                  <c:v>0.85714285714287153</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1666666666667001</c:v>
+                  <c:v>0.78571428571430002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.3491727909525551E-14</c:v>
+                  <c:v>0.71428571428572862</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.64285714285715712</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>0.57142857142858572</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>0.50000000000001421</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>0.42857142857144293</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>0.35714285714287142</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>0.28571428571430008</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>0.2142857142857286</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285715712</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>7.1428571428585774E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>1.4274296030894871E-14</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0</c:v>
@@ -3505,112 +3505,112 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.9999999999980202E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.19999999999997981</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.29999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.39999999999997998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.49999999999998002</c:v>
+                  <c:v>7.1428571428557144E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.59999999999997999</c:v>
+                  <c:v>0.14285714285712856</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.69999999999997997</c:v>
+                  <c:v>0.21428571428569998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.79999999999997995</c:v>
+                  <c:v>0.28571428571427138</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.89999999999998004</c:v>
+                  <c:v>0.35714285714284288</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.99999999999998002</c:v>
+                  <c:v>0.42857142857141428</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>0.49999999999998579</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.57142857142855707</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.64285714285712858</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.71428571428569998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.78571428571427149</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.857142857142843</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.92857142857141417</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99999999999998568</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="68">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="69">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="70">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="71">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="72">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="73">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="74">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.90000000000002012</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.80000000000002003</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.70000000000001983</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.60000000000001974</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.5000000000000201</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.40000000000002001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.30000000000001986</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.20000000000001977</c:v>
-                </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.10000000000001966</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.9984014443252821E-14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>0.87500000000002487</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>0.75000000000002487</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>0.62500000000002476</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>0.50000000000002465</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>0.3750000000000252</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>0.25000000000002509</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>0.12500000000002504</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>2.4980018054066013E-14</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0</c:v>
@@ -10403,64 +10403,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.99999999999609979</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.89999999999599978</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.79999999999589977</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.69999999999579987</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.59999999999569986</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.49999999999559991</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3999999999954999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.29999999999539995</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.19999999999529997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.9999999995199998E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>0.99999999999510003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>0.89999999999499991</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>0.7999999999948999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.69999999999479989</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>0.59999999999469988</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.49999999999459988</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>0.39999999999449981</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.29999999999440008</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>0.19999999999430004</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>9.999999999420002E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
@@ -11591,64 +11591,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>9.8998587105825225E-12</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0</c:v>
+                  <c:v>0.10000000000999988</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
+                  <c:v>0.2000000000100999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>0.30000000001019994</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>0.40000000001029995</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0</c:v>
+                  <c:v>0.50000000001040001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>0.60000000001050002</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>0.70000000001060003</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>0.80000000001070004</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0</c:v>
+                  <c:v>0.90000000001080005</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.0900169655769784E-11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.10000000001100014</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.2000000000111001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.30000000001120009</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.40000000001130004</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.50000000001139999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.6000000000115</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.70000000001160001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.80000000001169991</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.90000000001179992</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>1</c:v>
@@ -12419,64 +12419,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.9002134855081733E-12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.10000000000400018</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.20000000000410015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.30000000000420013</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.40000000000430008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.50000000000440004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.60000000000450004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.70000000000460005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.80000000000469995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.90000000000479996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>4.8999693191831292E-12</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>0.10000000000499999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1</c:v>
+                  <c:v>0.20000000000510001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>0.30000000000520005</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
+                  <c:v>0.40000000000530006</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1</c:v>
+                  <c:v>0.50000000000540012</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1</c:v>
+                  <c:v>0.60000000000550013</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>0.70000000000559992</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1</c:v>
+                  <c:v>0.80000000000569993</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1</c:v>
+                  <c:v>0.90000000000579994</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1</c:v>
@@ -12509,34 +12509,34 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.99999999999310096</c:v>
+                  <c:v>0.99999999999233424</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.89999999999300095</c:v>
+                  <c:v>0.88888888888111206</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.79999999999290095</c:v>
+                  <c:v>0.77777777776988988</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.69999999999280094</c:v>
+                  <c:v>0.66666666665866758</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.59999999999270104</c:v>
+                  <c:v>0.5555555555474454</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.49999999999260103</c:v>
+                  <c:v>0.44444444443622322</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.39999999999250102</c:v>
+                  <c:v>0.33333333332500104</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.29999999999240101</c:v>
+                  <c:v>0.22222222221377883</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.199999999992301</c:v>
+                  <c:v>0.11111111110255663</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.99999999922008E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0</c:v>
@@ -13517,64 +13517,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.8990646528988009E-12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.10000000000699907</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.20000000000709908</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.30000000000719906</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.40000000000729902</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.50000000000739908</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.60000000000749909</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.70000000000759899</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.800000000007699</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.90000000000779923</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.99999999999210076</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.89999999999200109</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.79999999999190108</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.69999999999180107</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.59999999999170106</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.49999999999160105</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.39999999999150104</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.29999999999140103</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.19999999999130103</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.9999999991201016E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>0</c:v>
@@ -14555,34 +14555,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.8992368202079904E-12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.100000000007999</c:v>
+                  <c:v>8.8877786303460141E-12</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.200000000008099</c:v>
+                  <c:v>0.11111111112010999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.30000000000819899</c:v>
+                  <c:v>0.22222222223133214</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.40000000000829899</c:v>
+                  <c:v>0.33333333334255433</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.50000000000839906</c:v>
+                  <c:v>0.44444444445377657</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.60000000000849907</c:v>
+                  <c:v>0.5555555555649988</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.70000000000859908</c:v>
+                  <c:v>0.66666666667622099</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.80000000000869909</c:v>
+                  <c:v>0.77777777778744328</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.90000000000879909</c:v>
+                  <c:v>0.88888888889866546</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1</c:v>
@@ -14615,64 +14615,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999010014</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1</c:v>
+                  <c:v>0.89999999999000002</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1</c:v>
+                  <c:v>0.79999999998990001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1</c:v>
+                  <c:v>0.6999999999898</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1</c:v>
+                  <c:v>0.59999999998969999</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1</c:v>
+                  <c:v>0.49999999998959999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1</c:v>
+                  <c:v>0.39999999998949992</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1</c:v>
+                  <c:v>0.29999999998939991</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1</c:v>
+                  <c:v>0.19999999998929988</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1</c:v>
+                  <c:v>9.9999999989199853E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.99999999998909983</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.89999999998899982</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.79999999998889981</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.69999999998879991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.59999999998869991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.49999999998859995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.39999999998849994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.29999999998839999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.19999999998830001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>9.9999999988200042E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>0</c:v>
@@ -15583,61 +15583,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.79999999999999982</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.69999999999999984</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.59999999999999976</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.49999999999999972</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.40000000000000019</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.30000000000000016</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.20000000000000009</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.10000000000000005</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>0.8999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>0.80000000000000027</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.70000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>0.39999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>0.19999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999999999825E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
@@ -16801,31 +16801,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.10000000000000005</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.20000000000000009</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.30000000000002014</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.40000000000002017</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.50000000000001965</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.60000000000001974</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.70000000000001983</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.80000000000001981</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.9000000000000199</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>1</c:v>
@@ -17599,61 +17599,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.10000000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.20000000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.30000000000000016</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.40000000000000019</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.50000000000000022</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.59999999999999976</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.69999999999999984</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.79999999999999982</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>0.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1</c:v>
+                  <c:v>0.19999999999999965</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>0.29999999999999977</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
+                  <c:v>0.39999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1</c:v>
+                  <c:v>0.90000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1</c:v>
@@ -17689,31 +17689,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.3</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0</c:v>
@@ -18697,61 +18697,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.10000000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.20000000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.40000000000000008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>0.50000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.90000000000000013</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.90000000000000013</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.80000000000000093</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>0.50000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.40000000000000008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.20000000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.10000000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>0</c:v>
@@ -19735,31 +19735,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.19999999999999901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.3</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1</c:v>
@@ -19795,61 +19795,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1</c:v>
+                  <c:v>0.90000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1</c:v>
+                  <c:v>0.39999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1</c:v>
+                  <c:v>0.29999999999999977</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1</c:v>
+                  <c:v>0.19999999999999965</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1</c:v>
+                  <c:v>0.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.79999999999999982</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.69999999999997986</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.59999999999997977</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.49999999999998029</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.3999999999999802</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.29999999999998017</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.19999999999998011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>9.9999999999980063E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>0</c:v>
@@ -21549,8 +21549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21613,10 +21613,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="7">
+        <v>-1.8</v>
+      </c>
+      <c r="C7" s="7">
         <v>-1.4</v>
-      </c>
-      <c r="C7" s="7">
-        <v>-0.9</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -21632,7 +21632,7 @@
       </c>
       <c r="H7" s="9">
         <f>1/(B7-C7)</f>
-        <v>-2.0000000000000004</v>
+        <v>-2.4999999999999991</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -21640,27 +21640,27 @@
         <v>16</v>
       </c>
       <c r="B8" s="7">
+        <v>-1.8</v>
+      </c>
+      <c r="C8" s="7">
         <v>-1.4</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="11">
         <v>-0.9</v>
       </c>
-      <c r="D8" s="11">
-        <v>-0.5</v>
-      </c>
       <c r="E8" s="11">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1">
         <f>1/(C8-B8)</f>
-        <v>2.0000000000000004</v>
+        <v>2.4999999999999991</v>
       </c>
       <c r="H8" s="1">
         <f>1/(D8-E8)</f>
-        <v>-2</v>
+        <v>-1.4285714285714286</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -21668,27 +21668,27 @@
         <v>17</v>
       </c>
       <c r="B9" s="7">
-        <v>-0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="C9" s="7">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="D9" s="11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="11">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="1">
         <f>1/(C9-B9)</f>
-        <v>2.5</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="H9" s="1">
         <f>1/(D9-E9)</f>
-        <v>-3.333333333333333</v>
+        <v>-1.4285714285714286</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -21696,27 +21696,27 @@
         <v>18</v>
       </c>
       <c r="B10" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10" s="7">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D10" s="11">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="E10" s="11">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="1">
         <f>1/(C10-B10)</f>
-        <v>2</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="H10" s="1">
         <f>1/(D10-E10)</f>
-        <v>-2.0000000000000004</v>
+        <v>-2.4999999999999991</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -21724,10 +21724,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="7">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="C11" s="7">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -21740,7 +21740,7 @@
       </c>
       <c r="G11" s="1">
         <f>1/(C11-B11)</f>
-        <v>2.0000000000000004</v>
+        <v>2.4999999999999991</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -22323,14 +22323,14 @@
       </c>
       <c r="B51" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.87499999999999989</v>
       </c>
       <c r="D51" s="17">
         <v>-1.75</v>
       </c>
       <c r="E51" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.12500000000000006</v>
       </c>
       <c r="G51" s="17">
         <v>-1.75</v>
@@ -22362,14 +22362,14 @@
       </c>
       <c r="B52" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="D52" s="17">
         <v>-1.7</v>
       </c>
       <c r="E52" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25000000000000011</v>
       </c>
       <c r="G52" s="17">
         <v>-1.7</v>
@@ -22401,14 +22401,14 @@
       </c>
       <c r="B53" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.62499999999999978</v>
       </c>
       <c r="D53" s="17">
         <v>-1.65</v>
       </c>
       <c r="E53" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.37500000000000022</v>
       </c>
       <c r="G53" s="17">
         <v>-1.65</v>
@@ -22440,14 +22440,14 @@
       </c>
       <c r="B54" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.50000000000000022</v>
       </c>
       <c r="D54" s="17">
         <v>-1.6</v>
       </c>
       <c r="E54" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.49999999999999972</v>
       </c>
       <c r="G54" s="17">
         <v>-1.6</v>
@@ -22479,14 +22479,14 @@
       </c>
       <c r="B55" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.37500000000000022</v>
       </c>
       <c r="D55" s="17">
         <v>-1.55</v>
       </c>
       <c r="E55" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.62499999999999978</v>
       </c>
       <c r="G55" s="17">
         <v>-1.55</v>
@@ -22518,14 +22518,14 @@
       </c>
       <c r="B56" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.25000000000000011</v>
       </c>
       <c r="D56" s="17">
         <v>-1.5</v>
       </c>
       <c r="E56" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="G56" s="17">
         <v>-1.5</v>
@@ -22557,14 +22557,14 @@
       </c>
       <c r="B57" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.12500000000000006</v>
       </c>
       <c r="D57" s="17">
         <v>-1.45</v>
       </c>
       <c r="E57" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.87499999999999989</v>
       </c>
       <c r="G57" s="17">
         <v>-1.45</v>
@@ -22596,14 +22596,14 @@
       </c>
       <c r="B58" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="17">
         <v>-1.4</v>
       </c>
       <c r="E58" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="17">
         <v>-1.4</v>
@@ -22635,14 +22635,14 @@
       </c>
       <c r="B59" s="10">
         <f t="shared" si="2"/>
-        <v>0.90000000000000036</v>
+        <v>0</v>
       </c>
       <c r="D59" s="17">
         <v>-1.35</v>
       </c>
       <c r="E59" s="16">
         <f t="shared" si="3"/>
-        <v>9.9999999999999672E-2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="17">
         <v>-1.35</v>
@@ -22674,14 +22674,14 @@
       </c>
       <c r="B60" s="10">
         <f t="shared" si="2"/>
-        <v>0.80000000000000027</v>
+        <v>0</v>
       </c>
       <c r="D60" s="17">
         <v>-1.3</v>
       </c>
       <c r="E60" s="16">
         <f t="shared" si="3"/>
-        <v>0.19999999999999979</v>
+        <v>1</v>
       </c>
       <c r="G60" s="17">
         <v>-1.3</v>
@@ -22713,14 +22713,14 @@
       </c>
       <c r="B61" s="10">
         <f t="shared" si="2"/>
-        <v>0.70000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D61" s="17">
         <v>-1.25</v>
       </c>
       <c r="E61" s="16">
         <f t="shared" si="3"/>
-        <v>0.29999999999999988</v>
+        <v>1</v>
       </c>
       <c r="G61" s="17">
         <v>-1.25</v>
@@ -22752,14 +22752,14 @@
       </c>
       <c r="B62" s="10">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D62" s="17">
         <v>-1.2</v>
       </c>
       <c r="E62" s="16">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G62" s="17">
         <v>-1.2</v>
@@ -22791,14 +22791,14 @@
       </c>
       <c r="B63" s="10">
         <f t="shared" si="2"/>
-        <v>0.49999999999999989</v>
+        <v>0</v>
       </c>
       <c r="D63" s="17">
         <v>-1.1499999999999999</v>
       </c>
       <c r="E63" s="16">
         <f t="shared" si="3"/>
-        <v>0.50000000000000011</v>
+        <v>1</v>
       </c>
       <c r="G63" s="17">
         <v>-1.1499999999999999</v>
@@ -22830,14 +22830,14 @@
       </c>
       <c r="B64" s="10">
         <f t="shared" si="2"/>
-        <v>0.40000000000000024</v>
+        <v>0</v>
       </c>
       <c r="D64" s="17">
         <v>-1.1000000000000001</v>
       </c>
       <c r="E64" s="16">
         <f t="shared" si="3"/>
-        <v>0.59999999999999976</v>
+        <v>1</v>
       </c>
       <c r="G64" s="17">
         <v>-1.1000000000000001</v>
@@ -22869,14 +22869,14 @@
       </c>
       <c r="B65" s="10">
         <f t="shared" si="2"/>
-        <v>0.3000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D65" s="17">
         <v>-1.05</v>
       </c>
       <c r="E65" s="16">
         <f t="shared" si="3"/>
-        <v>0.69999999999999984</v>
+        <v>1</v>
       </c>
       <c r="G65" s="17">
         <v>-1.05</v>
@@ -22908,14 +22908,14 @@
       </c>
       <c r="B66" s="10">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D66" s="17">
         <v>-1</v>
       </c>
       <c r="E66" s="16">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G66" s="17">
         <v>-1</v>
@@ -22947,14 +22947,14 @@
       </c>
       <c r="B67" s="10">
         <f t="shared" si="2"/>
-        <v>0.10000000000001988</v>
+        <v>0</v>
       </c>
       <c r="D67" s="17">
         <v>-0.95000000000000995</v>
       </c>
       <c r="E67" s="16">
         <f t="shared" si="3"/>
-        <v>0.89999999999998015</v>
+        <v>1</v>
       </c>
       <c r="G67" s="17">
         <v>-0.95000000000000995</v>
@@ -22986,14 +22986,14 @@
       </c>
       <c r="B68" s="10">
         <f t="shared" si="2"/>
-        <v>1.9984014443252821E-14</v>
+        <v>0</v>
       </c>
       <c r="D68" s="17">
         <v>-0.90000000000001001</v>
       </c>
       <c r="E68" s="16">
         <f t="shared" si="3"/>
-        <v>0.99999999999998002</v>
+        <v>1</v>
       </c>
       <c r="G68" s="17">
         <v>-0.90000000000001001</v>
@@ -23032,14 +23032,14 @@
       </c>
       <c r="E69" s="16">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.9285714285714427</v>
       </c>
       <c r="G69" s="17">
         <v>-0.85000000000000997</v>
       </c>
       <c r="H69" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.1428571428557214E-2</v>
       </c>
       <c r="I69" s="14"/>
       <c r="J69" s="17">
@@ -23071,14 +23071,14 @@
       </c>
       <c r="E70" s="16">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.85714285714287153</v>
       </c>
       <c r="G70" s="17">
         <v>-0.80000000000001004</v>
       </c>
       <c r="H70" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285712856</v>
       </c>
       <c r="I70" s="14"/>
       <c r="J70" s="17">
@@ -23110,14 +23110,14 @@
       </c>
       <c r="E71" s="16">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.78571428571430002</v>
       </c>
       <c r="G71" s="17">
         <v>-0.75000000000000999</v>
       </c>
       <c r="H71" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.21428571428570004</v>
       </c>
       <c r="I71" s="14"/>
       <c r="J71" s="17">
@@ -23149,14 +23149,14 @@
       </c>
       <c r="E72" s="16">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.71428571428572862</v>
       </c>
       <c r="G72" s="17">
         <v>-0.70000000000000995</v>
       </c>
       <c r="H72" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.28571428571427154</v>
       </c>
       <c r="I72" s="14"/>
       <c r="J72" s="17">
@@ -23188,14 +23188,14 @@
       </c>
       <c r="E73" s="16">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.64285714285715712</v>
       </c>
       <c r="G73" s="17">
         <v>-0.65000000000001001</v>
       </c>
       <c r="H73" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.35714285714284288</v>
       </c>
       <c r="I73" s="14"/>
       <c r="J73" s="17">
@@ -23227,14 +23227,14 @@
       </c>
       <c r="E74" s="16">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.57142857142858572</v>
       </c>
       <c r="G74" s="17">
         <v>-0.60000000000000997</v>
       </c>
       <c r="H74" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.42857142857141439</v>
       </c>
       <c r="I74" s="14"/>
       <c r="J74" s="17">
@@ -23266,14 +23266,14 @@
       </c>
       <c r="E75" s="16">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.50000000000001432</v>
       </c>
       <c r="G75" s="17">
         <v>-0.55000000000001004</v>
       </c>
       <c r="H75" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.49999999999998568</v>
       </c>
       <c r="I75" s="14"/>
       <c r="J75" s="17">
@@ -23305,14 +23305,14 @@
       </c>
       <c r="E76" s="16">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.42857142857144281</v>
       </c>
       <c r="G76" s="17">
         <v>-0.50000000000000999</v>
       </c>
       <c r="H76" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.57142857142855719</v>
       </c>
       <c r="I76" s="14"/>
       <c r="J76" s="17">
@@ -23344,14 +23344,14 @@
       </c>
       <c r="E77" s="16">
         <f t="shared" si="3"/>
-        <v>0.90000000000002001</v>
+        <v>0.35714285714287142</v>
       </c>
       <c r="G77" s="17">
         <v>-0.45000000000001</v>
       </c>
       <c r="H77" s="15">
         <f t="shared" si="4"/>
-        <v>0.12499999999997499</v>
+        <v>0.64285714285712858</v>
       </c>
       <c r="I77" s="14"/>
       <c r="J77" s="17">
@@ -23383,14 +23383,14 @@
       </c>
       <c r="E78" s="16">
         <f t="shared" si="3"/>
-        <v>0.80000000000002003</v>
+        <v>0.28571428571430002</v>
       </c>
       <c r="G78" s="17">
         <v>-0.40000000000001001</v>
       </c>
       <c r="H78" s="15">
         <f t="shared" si="4"/>
-        <v>0.24999999999997496</v>
+        <v>0.71428571428569998</v>
       </c>
       <c r="I78" s="14"/>
       <c r="J78" s="17">
@@ -23422,14 +23422,14 @@
       </c>
       <c r="E79" s="16">
         <f t="shared" si="3"/>
-        <v>0.70000000000002005</v>
+        <v>0.2142857142857286</v>
       </c>
       <c r="G79" s="17">
         <v>-0.35000000000001003</v>
       </c>
       <c r="H79" s="15">
         <f t="shared" si="4"/>
-        <v>0.37499999999997491</v>
+        <v>0.78571428571427149</v>
       </c>
       <c r="I79" s="14"/>
       <c r="J79" s="17">
@@ -23461,14 +23461,14 @@
       </c>
       <c r="E80" s="16">
         <f t="shared" si="3"/>
-        <v>0.60000000000001996</v>
+        <v>0.14285714285715712</v>
       </c>
       <c r="G80" s="17">
         <v>-0.30000000000000998</v>
       </c>
       <c r="H80" s="15">
         <f t="shared" si="4"/>
-        <v>0.49999999999997502</v>
+        <v>0.857142857142843</v>
       </c>
       <c r="I80" s="14"/>
       <c r="J80" s="17">
@@ -23500,14 +23500,14 @@
       </c>
       <c r="E81" s="16">
         <f t="shared" si="3"/>
-        <v>0.50000000000001998</v>
+        <v>7.1428571428585691E-2</v>
       </c>
       <c r="G81" s="17">
         <v>-0.25000000000000999</v>
       </c>
       <c r="H81" s="15">
         <f t="shared" si="4"/>
-        <v>0.62499999999997502</v>
+        <v>0.92857142857141439</v>
       </c>
       <c r="I81" s="14"/>
       <c r="J81" s="17">
@@ -23539,14 +23539,14 @@
       </c>
       <c r="E82" s="16">
         <f t="shared" si="3"/>
-        <v>0.40000000000002001</v>
+        <v>1.4274296030894871E-14</v>
       </c>
       <c r="G82" s="17">
         <v>-0.20000000000001</v>
       </c>
       <c r="H82" s="15">
         <f t="shared" si="4"/>
-        <v>0.74999999999997502</v>
+        <v>0.99999999999998568</v>
       </c>
       <c r="I82" s="14"/>
       <c r="J82" s="17">
@@ -23578,14 +23578,14 @@
       </c>
       <c r="E83" s="16">
         <f t="shared" si="3"/>
-        <v>0.30000000000001997</v>
+        <v>0</v>
       </c>
       <c r="G83" s="17">
         <v>-0.15000000000000999</v>
       </c>
       <c r="H83" s="15">
         <f t="shared" si="4"/>
-        <v>0.87499999999997491</v>
+        <v>1</v>
       </c>
       <c r="I83" s="14"/>
       <c r="J83" s="17">
@@ -23617,14 +23617,14 @@
       </c>
       <c r="E84" s="16">
         <f t="shared" si="3"/>
-        <v>0.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="G84" s="17">
         <v>-0.10000000000001</v>
       </c>
       <c r="H84" s="15">
         <f t="shared" si="4"/>
-        <v>0.99999999999997513</v>
+        <v>1</v>
       </c>
       <c r="I84" s="14"/>
       <c r="J84" s="17">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="E85" s="16">
         <f t="shared" si="3"/>
-        <v>0.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="G85" s="17">
         <v>-5.0000000000010002E-2</v>
@@ -23695,7 +23695,7 @@
       </c>
       <c r="E86" s="16">
         <f t="shared" si="3"/>
-        <v>1.9539925233402761E-14</v>
+        <v>0</v>
       </c>
       <c r="G86" s="17">
         <v>-9.7699626167013807E-15</v>
@@ -23749,7 +23749,7 @@
       </c>
       <c r="K87" s="15">
         <f t="shared" si="0"/>
-        <v>9.9999999999980202E-2</v>
+        <v>0</v>
       </c>
       <c r="L87" s="14"/>
       <c r="M87" s="17">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="K88" s="15">
         <f t="shared" si="0"/>
-        <v>0.19999999999997981</v>
+        <v>0</v>
       </c>
       <c r="L88" s="14"/>
       <c r="M88" s="17">
@@ -23819,7 +23819,7 @@
       </c>
       <c r="H89" s="15">
         <f t="shared" si="4"/>
-        <v>0.83333333333336657</v>
+        <v>1</v>
       </c>
       <c r="I89" s="14"/>
       <c r="J89" s="17">
@@ -23827,7 +23827,7 @@
       </c>
       <c r="K89" s="15">
         <f t="shared" si="0"/>
-        <v>0.29999999999998</v>
+        <v>0</v>
       </c>
       <c r="L89" s="14"/>
       <c r="M89" s="17">
@@ -23858,7 +23858,7 @@
       </c>
       <c r="H90" s="15">
         <f t="shared" si="4"/>
-        <v>0.66666666666670005</v>
+        <v>1</v>
       </c>
       <c r="I90" s="14"/>
       <c r="J90" s="17">
@@ -23866,7 +23866,7 @@
       </c>
       <c r="K90" s="15">
         <f t="shared" si="0"/>
-        <v>0.39999999999997998</v>
+        <v>0</v>
       </c>
       <c r="L90" s="14"/>
       <c r="M90" s="17">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="H91" s="15">
         <f t="shared" si="4"/>
-        <v>0.50000000000003331</v>
+        <v>0.92857142857144293</v>
       </c>
       <c r="I91" s="14"/>
       <c r="J91" s="17">
@@ -23905,7 +23905,7 @@
       </c>
       <c r="K91" s="15">
         <f t="shared" si="0"/>
-        <v>0.49999999999998002</v>
+        <v>7.1428571428557144E-2</v>
       </c>
       <c r="L91" s="14"/>
       <c r="M91" s="17">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="H92" s="15">
         <f t="shared" si="4"/>
-        <v>0.33333333333336673</v>
+        <v>0.85714285714287153</v>
       </c>
       <c r="I92" s="14"/>
       <c r="J92" s="17">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="K92" s="15">
         <f t="shared" si="0"/>
-        <v>0.59999999999997999</v>
+        <v>0.14285714285712856</v>
       </c>
       <c r="L92" s="14"/>
       <c r="M92" s="17">
@@ -23975,7 +23975,7 @@
       </c>
       <c r="H93" s="15">
         <f t="shared" si="4"/>
-        <v>0.1666666666667001</v>
+        <v>0.78571428571430002</v>
       </c>
       <c r="I93" s="14"/>
       <c r="J93" s="17">
@@ -23983,7 +23983,7 @@
       </c>
       <c r="K93" s="15">
         <f t="shared" si="0"/>
-        <v>0.69999999999997997</v>
+        <v>0.21428571428569998</v>
       </c>
       <c r="L93" s="14"/>
       <c r="M93" s="17">
@@ -24014,7 +24014,7 @@
       </c>
       <c r="H94" s="15">
         <f t="shared" si="4"/>
-        <v>3.3491727909525551E-14</v>
+        <v>0.71428571428572862</v>
       </c>
       <c r="I94" s="14"/>
       <c r="J94" s="17">
@@ -24022,7 +24022,7 @@
       </c>
       <c r="K94" s="15">
         <f t="shared" si="0"/>
-        <v>0.79999999999997995</v>
+        <v>0.28571428571427138</v>
       </c>
       <c r="L94" s="14"/>
       <c r="M94" s="17">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="H95" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.64285714285715712</v>
       </c>
       <c r="I95" s="14"/>
       <c r="J95" s="17">
@@ -24061,7 +24061,7 @@
       </c>
       <c r="K95" s="15">
         <f t="shared" si="0"/>
-        <v>0.89999999999998004</v>
+        <v>0.35714285714284288</v>
       </c>
       <c r="L95" s="14"/>
       <c r="M95" s="17">
@@ -24092,7 +24092,7 @@
       </c>
       <c r="H96" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.57142857142858572</v>
       </c>
       <c r="I96" s="14"/>
       <c r="J96" s="17">
@@ -24100,7 +24100,7 @@
       </c>
       <c r="K96" s="15">
         <f t="shared" si="0"/>
-        <v>0.99999999999998002</v>
+        <v>0.42857142857141428</v>
       </c>
       <c r="L96" s="14"/>
       <c r="M96" s="17">
@@ -24131,7 +24131,7 @@
       </c>
       <c r="H97" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="I97" s="14"/>
       <c r="J97" s="17">
@@ -24139,7 +24139,7 @@
       </c>
       <c r="K97" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.49999999999998579</v>
       </c>
       <c r="L97" s="14"/>
       <c r="M97" s="17">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="H98" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.42857142857144293</v>
       </c>
       <c r="I98" s="14"/>
       <c r="J98" s="17">
@@ -24178,7 +24178,7 @@
       </c>
       <c r="K98" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.57142857142855707</v>
       </c>
       <c r="L98" s="14"/>
       <c r="M98" s="17">
@@ -24209,7 +24209,7 @@
       </c>
       <c r="H99" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.35714285714287142</v>
       </c>
       <c r="I99" s="14"/>
       <c r="J99" s="17">
@@ -24217,7 +24217,7 @@
       </c>
       <c r="K99" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.64285714285712858</v>
       </c>
       <c r="L99" s="14"/>
       <c r="M99" s="17">
@@ -24248,7 +24248,7 @@
       </c>
       <c r="H100" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.28571428571430008</v>
       </c>
       <c r="I100" s="14"/>
       <c r="J100" s="17">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="K100" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.71428571428569998</v>
       </c>
       <c r="L100" s="14"/>
       <c r="M100" s="17">
@@ -24287,7 +24287,7 @@
       </c>
       <c r="H101" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.2142857142857286</v>
       </c>
       <c r="I101" s="14"/>
       <c r="J101" s="17">
@@ -24295,7 +24295,7 @@
       </c>
       <c r="K101" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.78571428571427149</v>
       </c>
       <c r="L101" s="14"/>
       <c r="M101" s="17">
@@ -24326,7 +24326,7 @@
       </c>
       <c r="H102" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.14285714285715712</v>
       </c>
       <c r="I102" s="14"/>
       <c r="J102" s="17">
@@ -24334,7 +24334,7 @@
       </c>
       <c r="K102" s="15">
         <f t="shared" ref="K102:K138" si="6">IF(OR(J102&lt;=$B$10,J102&gt;=$E$10),0,IF(AND(J102&gt;=$C$10,J102&lt;=$D$10),1,IF(AND(J102&gt;=$B$10,J102&lt;=$C$10),$G$10*(J102-$B$10),IF(AND(J102&gt;=$D$10,J102&lt;=$E$10),$H$10*(J102-$E$10)))))</f>
-        <v>1</v>
+        <v>0.857142857142843</v>
       </c>
       <c r="L102" s="14"/>
       <c r="M102" s="17">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="H103" s="15">
         <f t="shared" ref="H103:H139" si="10">IF(OR(G103&lt;=$B$9,G103&gt;=$E$9),0,IF(AND(G103&gt;=$C$9,G103&lt;=$D$9),1,IF(AND(G103&gt;=$B$9,G103&lt;=$C$9),$G$9*(G103-$B$9),IF(AND(G103&gt;=$D$9,G103&lt;=$E$9),$H$9*(G103-$E$9)))))</f>
-        <v>0</v>
+        <v>7.1428571428585774E-2</v>
       </c>
       <c r="I103" s="14"/>
       <c r="J103" s="17">
@@ -24373,7 +24373,7 @@
       </c>
       <c r="K103" s="15">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.92857142857141417</v>
       </c>
       <c r="L103" s="14"/>
       <c r="M103" s="17">
@@ -24404,7 +24404,7 @@
       </c>
       <c r="H104" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.4274296030894871E-14</v>
       </c>
       <c r="I104" s="14"/>
       <c r="J104" s="17">
@@ -24412,7 +24412,7 @@
       </c>
       <c r="K104" s="15">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.99999999999998568</v>
       </c>
       <c r="L104" s="14"/>
       <c r="M104" s="17">
@@ -24451,7 +24451,7 @@
       </c>
       <c r="K105" s="15">
         <f t="shared" si="6"/>
-        <v>0.90000000000002012</v>
+        <v>1</v>
       </c>
       <c r="L105" s="14"/>
       <c r="M105" s="17">
@@ -24459,7 +24459,7 @@
       </c>
       <c r="N105" s="7">
         <f t="shared" si="7"/>
-        <v>9.9999999999979911E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -24490,7 +24490,7 @@
       </c>
       <c r="K106" s="15">
         <f t="shared" si="6"/>
-        <v>0.80000000000002003</v>
+        <v>1</v>
       </c>
       <c r="L106" s="14"/>
       <c r="M106" s="17">
@@ -24498,7 +24498,7 @@
       </c>
       <c r="N106" s="7">
         <f t="shared" si="7"/>
-        <v>0.19999999999998003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -24529,7 +24529,7 @@
       </c>
       <c r="K107" s="15">
         <f t="shared" si="6"/>
-        <v>0.70000000000001983</v>
+        <v>1</v>
       </c>
       <c r="L107" s="14"/>
       <c r="M107" s="17">
@@ -24537,7 +24537,7 @@
       </c>
       <c r="N107" s="7">
         <f t="shared" si="7"/>
-        <v>0.29999999999998012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="K108" s="15">
         <f t="shared" si="6"/>
-        <v>0.60000000000001974</v>
+        <v>1</v>
       </c>
       <c r="L108" s="14"/>
       <c r="M108" s="17">
@@ -24576,7 +24576,7 @@
       </c>
       <c r="N108" s="7">
         <f t="shared" si="7"/>
-        <v>0.39999999999998026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -24607,7 +24607,7 @@
       </c>
       <c r="K109" s="15">
         <f t="shared" si="6"/>
-        <v>0.5000000000000201</v>
+        <v>1</v>
       </c>
       <c r="L109" s="14"/>
       <c r="M109" s="17">
@@ -24615,7 +24615,7 @@
       </c>
       <c r="N109" s="7">
         <f t="shared" si="7"/>
-        <v>0.4999999999999799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -24646,7 +24646,7 @@
       </c>
       <c r="K110" s="15">
         <f t="shared" si="6"/>
-        <v>0.40000000000002001</v>
+        <v>1</v>
       </c>
       <c r="L110" s="14"/>
       <c r="M110" s="17">
@@ -24654,7 +24654,7 @@
       </c>
       <c r="N110" s="7">
         <f t="shared" si="7"/>
-        <v>0.59999999999997999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="K111" s="15">
         <f t="shared" si="6"/>
-        <v>0.30000000000001986</v>
+        <v>1</v>
       </c>
       <c r="L111" s="14"/>
       <c r="M111" s="17">
@@ -24693,7 +24693,7 @@
       </c>
       <c r="N111" s="7">
         <f t="shared" si="7"/>
-        <v>0.69999999999998008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -24724,7 +24724,7 @@
       </c>
       <c r="K112" s="15">
         <f t="shared" si="6"/>
-        <v>0.20000000000001977</v>
+        <v>1</v>
       </c>
       <c r="L112" s="14"/>
       <c r="M112" s="17">
@@ -24732,7 +24732,7 @@
       </c>
       <c r="N112" s="7">
         <f t="shared" si="7"/>
-        <v>0.79999999999998028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
@@ -24763,7 +24763,7 @@
       </c>
       <c r="K113" s="15">
         <f t="shared" si="6"/>
-        <v>0.10000000000001966</v>
+        <v>1</v>
       </c>
       <c r="L113" s="14"/>
       <c r="M113" s="17">
@@ -24771,7 +24771,7 @@
       </c>
       <c r="N113" s="7">
         <f t="shared" si="7"/>
-        <v>0.89999999999998037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
@@ -24802,7 +24802,7 @@
       </c>
       <c r="K114" s="15">
         <f t="shared" si="6"/>
-        <v>1.9984014443252821E-14</v>
+        <v>1</v>
       </c>
       <c r="L114" s="14"/>
       <c r="M114" s="17">
@@ -24810,7 +24810,7 @@
       </c>
       <c r="N114" s="7">
         <f t="shared" si="7"/>
-        <v>0.99999999999998002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
@@ -24841,7 +24841,7 @@
       </c>
       <c r="K115" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.87500000000002487</v>
       </c>
       <c r="L115" s="14"/>
       <c r="M115" s="17">
@@ -24849,7 +24849,7 @@
       </c>
       <c r="N115" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.12499999999997509</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
@@ -24880,7 +24880,7 @@
       </c>
       <c r="K116" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.75000000000002487</v>
       </c>
       <c r="L116" s="14"/>
       <c r="M116" s="17">
@@ -24888,7 +24888,7 @@
       </c>
       <c r="N116" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.24999999999997516</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -24919,7 +24919,7 @@
       </c>
       <c r="K117" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.62500000000002476</v>
       </c>
       <c r="L117" s="14"/>
       <c r="M117" s="17">
@@ -24927,7 +24927,7 @@
       </c>
       <c r="N117" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.37499999999997524</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -24958,7 +24958,7 @@
       </c>
       <c r="K118" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.50000000000002465</v>
       </c>
       <c r="L118" s="14"/>
       <c r="M118" s="17">
@@ -24966,7 +24966,7 @@
       </c>
       <c r="N118" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.4999999999999753</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
@@ -24997,7 +24997,7 @@
       </c>
       <c r="K119" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.3750000000000252</v>
       </c>
       <c r="L119" s="14"/>
       <c r="M119" s="17">
@@ -25005,7 +25005,7 @@
       </c>
       <c r="N119" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.6249999999999748</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
@@ -25036,7 +25036,7 @@
       </c>
       <c r="K120" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.25000000000002509</v>
       </c>
       <c r="L120" s="14"/>
       <c r="M120" s="17">
@@ -25044,7 +25044,7 @@
       </c>
       <c r="N120" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.74999999999997491</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K121" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.12500000000002504</v>
       </c>
       <c r="L121" s="14"/>
       <c r="M121" s="17">
@@ -25083,7 +25083,7 @@
       </c>
       <c r="N121" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.87499999999997491</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
@@ -25114,7 +25114,7 @@
       </c>
       <c r="K122" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.4980018054066013E-14</v>
       </c>
       <c r="L122" s="14"/>
       <c r="M122" s="17">
@@ -25122,7 +25122,7 @@
       </c>
       <c r="N122" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99999999999997502</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
@@ -33388,8 +33388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80852986-C994-4AE5-B43E-409E55245785}">
   <dimension ref="A1:N225"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33460,10 +33460,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="C7" s="7">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -33479,7 +33479,7 @@
       </c>
       <c r="H7" s="9">
         <f>1/(B7-C7)</f>
-        <v>-9.9999999999999964</v>
+        <v>-10.000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -33487,27 +33487,27 @@
         <v>16</v>
       </c>
       <c r="B8" s="7">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="C8" s="7">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="D8" s="7">
         <v>-0.1</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1">
         <f>1/(C8-B8)</f>
-        <v>9.9999999999999964</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="H8" s="1">
         <f>1/(D8-E8)</f>
-        <v>-10</v>
+        <v>-11.111111111111109</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -33515,27 +33515,27 @@
         <v>17</v>
       </c>
       <c r="B9" s="7">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="D9" s="11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="11">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="1">
         <f>1/(C9-B9)</f>
-        <v>10</v>
+        <v>-6.6666666666666661</v>
       </c>
       <c r="H9" s="1">
         <f>1/(D9-E9)</f>
-        <v>-10</v>
+        <v>6.6666666666666661</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -33543,38 +33543,38 @@
         <v>18</v>
       </c>
       <c r="B10" s="7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C10" s="7">
         <v>0.1</v>
       </c>
       <c r="D10" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="11">
         <v>0.3</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.4</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="1">
         <f>1/(C10-B10)</f>
-        <v>10</v>
+        <v>11.111111111111109</v>
       </c>
       <c r="H10" s="1">
         <f>1/(D10-E10)</f>
-        <v>-9.9999999999999964</v>
+        <v>-10.000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="11">
         <v>0.3</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.4</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -33587,7 +33587,7 @@
       </c>
       <c r="G11" s="1">
         <f>1/(C11-B11)</f>
-        <v>9.9999999999999964</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -35223,14 +35223,14 @@
       </c>
       <c r="B78" s="10">
         <f t="shared" si="0"/>
-        <v>0.99999999999609979</v>
+        <v>1</v>
       </c>
       <c r="D78" s="17">
         <v>-0.39999999999961</v>
       </c>
       <c r="E78" s="16">
         <f t="shared" si="1"/>
-        <v>3.9002134855081733E-12</v>
+        <v>0</v>
       </c>
       <c r="G78" s="17">
         <v>-0.39999999999961</v>
@@ -35262,14 +35262,14 @@
       </c>
       <c r="B79" s="10">
         <f t="shared" si="0"/>
-        <v>0.89999999999599978</v>
+        <v>1</v>
       </c>
       <c r="D79" s="17">
         <v>-0.3899999999996</v>
       </c>
       <c r="E79" s="16">
         <f t="shared" si="1"/>
-        <v>0.10000000000400018</v>
+        <v>0</v>
       </c>
       <c r="G79" s="17">
         <v>-0.3899999999996</v>
@@ -35301,14 +35301,14 @@
       </c>
       <c r="B80" s="10">
         <f t="shared" si="0"/>
-        <v>0.79999999999589977</v>
+        <v>1</v>
       </c>
       <c r="D80" s="17">
         <v>-0.37999999999959</v>
       </c>
       <c r="E80" s="16">
         <f t="shared" si="1"/>
-        <v>0.20000000000410015</v>
+        <v>0</v>
       </c>
       <c r="G80" s="17">
         <v>-0.37999999999959</v>
@@ -35340,14 +35340,14 @@
       </c>
       <c r="B81" s="10">
         <f t="shared" si="0"/>
-        <v>0.69999999999579987</v>
+        <v>1</v>
       </c>
       <c r="D81" s="17">
         <v>-0.36999999999958</v>
       </c>
       <c r="E81" s="16">
         <f t="shared" si="1"/>
-        <v>0.30000000000420013</v>
+        <v>0</v>
       </c>
       <c r="G81" s="17">
         <v>-0.36999999999958</v>
@@ -35379,14 +35379,14 @@
       </c>
       <c r="B82" s="10">
         <f t="shared" si="0"/>
-        <v>0.59999999999569986</v>
+        <v>1</v>
       </c>
       <c r="D82" s="17">
         <v>-0.35999999999957</v>
       </c>
       <c r="E82" s="16">
         <f t="shared" si="1"/>
-        <v>0.40000000000430008</v>
+        <v>0</v>
       </c>
       <c r="G82" s="17">
         <v>-0.35999999999957</v>
@@ -35418,14 +35418,14 @@
       </c>
       <c r="B83" s="10">
         <f t="shared" si="0"/>
-        <v>0.49999999999559991</v>
+        <v>1</v>
       </c>
       <c r="D83" s="17">
         <v>-0.34999999999956</v>
       </c>
       <c r="E83" s="16">
         <f t="shared" si="1"/>
-        <v>0.50000000000440004</v>
+        <v>0</v>
       </c>
       <c r="G83" s="17">
         <v>-0.34999999999956</v>
@@ -35457,14 +35457,14 @@
       </c>
       <c r="B84" s="10">
         <f t="shared" si="0"/>
-        <v>0.3999999999954999</v>
+        <v>1</v>
       </c>
       <c r="D84" s="17">
         <v>-0.33999999999955</v>
       </c>
       <c r="E84" s="16">
         <f t="shared" si="1"/>
-        <v>0.60000000000450004</v>
+        <v>0</v>
       </c>
       <c r="G84" s="17">
         <v>-0.33999999999955</v>
@@ -35496,14 +35496,14 @@
       </c>
       <c r="B85" s="10">
         <f t="shared" si="0"/>
-        <v>0.29999999999539995</v>
+        <v>1</v>
       </c>
       <c r="D85" s="17">
         <v>-0.32999999999953999</v>
       </c>
       <c r="E85" s="16">
         <f t="shared" si="1"/>
-        <v>0.70000000000460005</v>
+        <v>0</v>
       </c>
       <c r="G85" s="17">
         <v>-0.32999999999953999</v>
@@ -35535,14 +35535,14 @@
       </c>
       <c r="B86" s="10">
         <f t="shared" si="0"/>
-        <v>0.19999999999529997</v>
+        <v>1</v>
       </c>
       <c r="D86" s="17">
         <v>-0.31999999999952999</v>
       </c>
       <c r="E86" s="16">
         <f t="shared" si="1"/>
-        <v>0.80000000000469995</v>
+        <v>0</v>
       </c>
       <c r="G86" s="17">
         <v>-0.31999999999952999</v>
@@ -35574,14 +35574,14 @@
       </c>
       <c r="B87" s="10">
         <f t="shared" si="0"/>
-        <v>9.9999999995199998E-2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="17">
         <v>-0.30999999999951999</v>
       </c>
       <c r="E87" s="16">
         <f t="shared" si="1"/>
-        <v>0.90000000000479996</v>
+        <v>0</v>
       </c>
       <c r="G87" s="17">
         <v>-0.30999999999951999</v>
@@ -35613,14 +35613,14 @@
       </c>
       <c r="B88" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.99999999999510003</v>
       </c>
       <c r="D88" s="17">
         <v>-0.29999999999950999</v>
       </c>
       <c r="E88" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4.8999693191831292E-12</v>
       </c>
       <c r="G88" s="17">
         <v>-0.29999999999950999</v>
@@ -35652,14 +35652,14 @@
       </c>
       <c r="B89" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.89999999999499991</v>
       </c>
       <c r="D89" s="17">
         <v>-0.28999999999949999</v>
       </c>
       <c r="E89" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.10000000000499999</v>
       </c>
       <c r="G89" s="17">
         <v>-0.28999999999949999</v>
@@ -35691,14 +35691,14 @@
       </c>
       <c r="B90" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7999999999948999</v>
       </c>
       <c r="D90" s="17">
         <v>-0.27999999999948999</v>
       </c>
       <c r="E90" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.20000000000510001</v>
       </c>
       <c r="G90" s="17">
         <v>-0.27999999999948999</v>
@@ -35730,14 +35730,14 @@
       </c>
       <c r="B91" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.69999999999479989</v>
       </c>
       <c r="D91" s="17">
         <v>-0.26999999999947999</v>
       </c>
       <c r="E91" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.30000000000520005</v>
       </c>
       <c r="G91" s="17">
         <v>-0.26999999999947999</v>
@@ -35769,14 +35769,14 @@
       </c>
       <c r="B92" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.59999999999469988</v>
       </c>
       <c r="D92" s="17">
         <v>-0.25999999999946999</v>
       </c>
       <c r="E92" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.40000000000530006</v>
       </c>
       <c r="G92" s="17">
         <v>-0.25999999999946999</v>
@@ -35808,14 +35808,14 @@
       </c>
       <c r="B93" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.49999999999459988</v>
       </c>
       <c r="D93" s="17">
         <v>-0.24999999999945999</v>
       </c>
       <c r="E93" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.50000000000540012</v>
       </c>
       <c r="G93" s="17">
         <v>-0.24999999999945999</v>
@@ -35847,14 +35847,14 @@
       </c>
       <c r="B94" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.39999999999449981</v>
       </c>
       <c r="D94" s="17">
         <v>-0.23999999999944999</v>
       </c>
       <c r="E94" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.60000000000550013</v>
       </c>
       <c r="G94" s="17">
         <v>-0.23999999999944999</v>
@@ -35886,14 +35886,14 @@
       </c>
       <c r="B95" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29999999999440008</v>
       </c>
       <c r="D95" s="17">
         <v>-0.22999999999944001</v>
       </c>
       <c r="E95" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.70000000000559992</v>
       </c>
       <c r="G95" s="17">
         <v>-0.22999999999944001</v>
@@ -35925,14 +35925,14 @@
       </c>
       <c r="B96" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19999999999430004</v>
       </c>
       <c r="D96" s="17">
         <v>-0.21999999999943001</v>
       </c>
       <c r="E96" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.80000000000569993</v>
       </c>
       <c r="G96" s="17">
         <v>-0.21999999999943001</v>
@@ -35964,14 +35964,14 @@
       </c>
       <c r="B97" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.999999999420002E-2</v>
       </c>
       <c r="D97" s="17">
         <v>-0.20999999999942001</v>
       </c>
       <c r="E97" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.90000000000579994</v>
       </c>
       <c r="G97" s="17">
         <v>-0.20999999999942001</v>
@@ -36400,14 +36400,14 @@
       </c>
       <c r="E108" s="16">
         <f t="shared" si="6"/>
-        <v>0.99999999999310096</v>
+        <v>0.99999999999233424</v>
       </c>
       <c r="G108" s="17">
         <v>-9.9999999999310099E-2</v>
       </c>
       <c r="H108" s="15">
         <f t="shared" si="7"/>
-        <v>6.8990646528988009E-12</v>
+        <v>0</v>
       </c>
       <c r="I108" s="14"/>
       <c r="J108" s="17">
@@ -36439,14 +36439,14 @@
       </c>
       <c r="E109" s="16">
         <f t="shared" si="6"/>
-        <v>0.89999999999300095</v>
+        <v>0.88888888888111206</v>
       </c>
       <c r="G109" s="17">
         <v>-8.9999999999300098E-2</v>
       </c>
       <c r="H109" s="15">
         <f t="shared" si="7"/>
-        <v>0.10000000000699907</v>
+        <v>0</v>
       </c>
       <c r="I109" s="14"/>
       <c r="J109" s="17">
@@ -36478,14 +36478,14 @@
       </c>
       <c r="E110" s="16">
         <f t="shared" si="6"/>
-        <v>0.79999999999290095</v>
+        <v>0.77777777776988988</v>
       </c>
       <c r="G110" s="17">
         <v>-7.9999999999290097E-2</v>
       </c>
       <c r="H110" s="15">
         <f t="shared" si="7"/>
-        <v>0.20000000000709908</v>
+        <v>0</v>
       </c>
       <c r="I110" s="14"/>
       <c r="J110" s="17">
@@ -36517,14 +36517,14 @@
       </c>
       <c r="E111" s="16">
         <f t="shared" si="6"/>
-        <v>0.69999999999280094</v>
+        <v>0.66666666665866758</v>
       </c>
       <c r="G111" s="17">
         <v>-6.9999999999280096E-2</v>
       </c>
       <c r="H111" s="15">
         <f t="shared" si="7"/>
-        <v>0.30000000000719906</v>
+        <v>0</v>
       </c>
       <c r="I111" s="14"/>
       <c r="J111" s="17">
@@ -36556,14 +36556,14 @@
       </c>
       <c r="E112" s="16">
         <f t="shared" si="6"/>
-        <v>0.59999999999270104</v>
+        <v>0.5555555555474454</v>
       </c>
       <c r="G112" s="17">
         <v>-5.9999999999270102E-2</v>
       </c>
       <c r="H112" s="15">
         <f t="shared" si="7"/>
-        <v>0.40000000000729902</v>
+        <v>0</v>
       </c>
       <c r="I112" s="14"/>
       <c r="J112" s="17">
@@ -36595,14 +36595,14 @@
       </c>
       <c r="E113" s="16">
         <f t="shared" si="6"/>
-        <v>0.49999999999260103</v>
+        <v>0.44444444443622322</v>
       </c>
       <c r="G113" s="17">
         <v>-4.9999999999260102E-2</v>
       </c>
       <c r="H113" s="15">
         <f t="shared" si="7"/>
-        <v>0.50000000000739908</v>
+        <v>1</v>
       </c>
       <c r="I113" s="14"/>
       <c r="J113" s="17">
@@ -36634,14 +36634,14 @@
       </c>
       <c r="E114" s="16">
         <f t="shared" si="6"/>
-        <v>0.39999999999250102</v>
+        <v>0.33333333332500104</v>
       </c>
       <c r="G114" s="17">
         <v>-3.9999999999250101E-2</v>
       </c>
       <c r="H114" s="15">
         <f t="shared" si="7"/>
-        <v>0.60000000000749909</v>
+        <v>1</v>
       </c>
       <c r="I114" s="14"/>
       <c r="J114" s="17">
@@ -36673,14 +36673,14 @@
       </c>
       <c r="E115" s="16">
         <f t="shared" si="6"/>
-        <v>0.29999999999240101</v>
+        <v>0.22222222221377883</v>
       </c>
       <c r="G115" s="17">
         <v>-2.99999999992401E-2</v>
       </c>
       <c r="H115" s="15">
         <f t="shared" si="7"/>
-        <v>0.70000000000759899</v>
+        <v>1</v>
       </c>
       <c r="I115" s="14"/>
       <c r="J115" s="17">
@@ -36712,14 +36712,14 @@
       </c>
       <c r="E116" s="16">
         <f t="shared" si="6"/>
-        <v>0.199999999992301</v>
+        <v>0.11111111110255663</v>
       </c>
       <c r="G116" s="17">
         <v>-1.9999999999230099E-2</v>
       </c>
       <c r="H116" s="15">
         <f t="shared" si="7"/>
-        <v>0.800000000007699</v>
+        <v>1</v>
       </c>
       <c r="I116" s="14"/>
       <c r="J116" s="17">
@@ -36751,14 +36751,14 @@
       </c>
       <c r="E117" s="16">
         <f t="shared" si="6"/>
-        <v>9.99999999922008E-2</v>
+        <v>0</v>
       </c>
       <c r="G117" s="17">
         <v>-9.9999999992200807E-3</v>
       </c>
       <c r="H117" s="15">
         <f t="shared" si="7"/>
-        <v>0.90000000000779923</v>
+        <v>1</v>
       </c>
       <c r="J117" s="17">
         <v>-9.9999999992200807E-3</v>
@@ -36795,14 +36795,14 @@
       </c>
       <c r="H118" s="15">
         <f t="shared" si="7"/>
-        <v>0.99999999999210076</v>
+        <v>1</v>
       </c>
       <c r="J118" s="17">
         <v>7.8992368202079898E-13</v>
       </c>
       <c r="K118" s="15">
         <f t="shared" si="8"/>
-        <v>7.8992368202079904E-12</v>
+        <v>0</v>
       </c>
       <c r="M118" s="17">
         <v>7.8992368202079898E-13</v>
@@ -36832,14 +36832,14 @@
       </c>
       <c r="H119" s="15">
         <f t="shared" si="7"/>
-        <v>0.89999999999200109</v>
+        <v>1</v>
       </c>
       <c r="J119" s="17">
         <v>1.00000000007999E-2</v>
       </c>
       <c r="K119" s="15">
         <f t="shared" si="8"/>
-        <v>0.100000000007999</v>
+        <v>8.8877786303460141E-12</v>
       </c>
       <c r="M119" s="17">
         <v>1.00000000007999E-2</v>
@@ -36869,14 +36869,14 @@
       </c>
       <c r="H120" s="15">
         <f t="shared" si="7"/>
-        <v>0.79999999999190108</v>
+        <v>1</v>
       </c>
       <c r="J120" s="17">
         <v>2.0000000000809901E-2</v>
       </c>
       <c r="K120" s="15">
         <f t="shared" si="8"/>
-        <v>0.200000000008099</v>
+        <v>0.11111111112010999</v>
       </c>
       <c r="M120" s="17">
         <v>2.0000000000809901E-2</v>
@@ -36906,14 +36906,14 @@
       </c>
       <c r="H121" s="15">
         <f t="shared" si="7"/>
-        <v>0.69999999999180107</v>
+        <v>1</v>
       </c>
       <c r="J121" s="17">
         <v>3.0000000000819899E-2</v>
       </c>
       <c r="K121" s="15">
         <f t="shared" si="8"/>
-        <v>0.30000000000819899</v>
+        <v>0.22222222223133214</v>
       </c>
       <c r="M121" s="17">
         <v>3.0000000000819899E-2</v>
@@ -36943,14 +36943,14 @@
       </c>
       <c r="H122" s="15">
         <f t="shared" si="7"/>
-        <v>0.59999999999170106</v>
+        <v>1</v>
       </c>
       <c r="J122" s="17">
         <v>4.0000000000829899E-2</v>
       </c>
       <c r="K122" s="15">
         <f t="shared" si="8"/>
-        <v>0.40000000000829899</v>
+        <v>0.33333333334255433</v>
       </c>
       <c r="M122" s="17">
         <v>4.0000000000829899E-2</v>
@@ -36980,14 +36980,14 @@
       </c>
       <c r="H123" s="15">
         <f t="shared" si="7"/>
-        <v>0.49999999999160105</v>
+        <v>0</v>
       </c>
       <c r="J123" s="17">
         <v>5.00000000008399E-2</v>
       </c>
       <c r="K123" s="15">
         <f t="shared" si="8"/>
-        <v>0.50000000000839906</v>
+        <v>0.44444444445377657</v>
       </c>
       <c r="M123" s="17">
         <v>5.00000000008399E-2</v>
@@ -37017,14 +37017,14 @@
       </c>
       <c r="H124" s="15">
         <f t="shared" si="7"/>
-        <v>0.39999999999150104</v>
+        <v>0</v>
       </c>
       <c r="J124" s="17">
         <v>6.0000000000849901E-2</v>
       </c>
       <c r="K124" s="15">
         <f t="shared" si="8"/>
-        <v>0.60000000000849907</v>
+        <v>0.5555555555649988</v>
       </c>
       <c r="M124" s="17">
         <v>6.0000000000849901E-2</v>
@@ -37054,14 +37054,14 @@
       </c>
       <c r="H125" s="15">
         <f t="shared" si="7"/>
-        <v>0.29999999999140103</v>
+        <v>0</v>
       </c>
       <c r="J125" s="17">
         <v>7.0000000000859902E-2</v>
       </c>
       <c r="K125" s="15">
         <f t="shared" si="8"/>
-        <v>0.70000000000859908</v>
+        <v>0.66666666667622099</v>
       </c>
       <c r="M125" s="17">
         <v>7.0000000000859902E-2</v>
@@ -37091,14 +37091,14 @@
       </c>
       <c r="H126" s="15">
         <f t="shared" si="7"/>
-        <v>0.19999999999130103</v>
+        <v>0</v>
       </c>
       <c r="J126" s="17">
         <v>8.0000000000869903E-2</v>
       </c>
       <c r="K126" s="15">
         <f t="shared" si="8"/>
-        <v>0.80000000000869909</v>
+        <v>0.77777777778744328</v>
       </c>
       <c r="M126" s="17">
         <v>8.0000000000869903E-2</v>
@@ -37128,14 +37128,14 @@
       </c>
       <c r="H127" s="15">
         <f t="shared" si="7"/>
-        <v>9.9999999991201016E-2</v>
+        <v>0</v>
       </c>
       <c r="J127" s="17">
         <v>9.0000000000879904E-2</v>
       </c>
       <c r="K127" s="15">
         <f t="shared" si="8"/>
-        <v>0.90000000000879909</v>
+        <v>0.88888888889866546</v>
       </c>
       <c r="M127" s="17">
         <v>9.0000000000879904E-2</v>
@@ -37542,14 +37542,14 @@
       </c>
       <c r="K138" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.99999999999010014</v>
       </c>
       <c r="M138" s="17">
         <v>0.20000000000099</v>
       </c>
       <c r="N138" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.8998587105825225E-12</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
@@ -37579,14 +37579,14 @@
       </c>
       <c r="K139" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.89999999999000002</v>
       </c>
       <c r="M139" s="17">
         <v>0.210000000001</v>
       </c>
       <c r="N139" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.10000000000999988</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
@@ -37616,14 +37616,14 @@
       </c>
       <c r="K140" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.79999999998990001</v>
       </c>
       <c r="M140" s="17">
         <v>0.22000000000101</v>
       </c>
       <c r="N140" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.2000000000100999</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
@@ -37653,14 +37653,14 @@
       </c>
       <c r="K141" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.6999999999898</v>
       </c>
       <c r="M141" s="17">
         <v>0.23000000000102</v>
       </c>
       <c r="N141" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.30000000001019994</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
@@ -37690,14 +37690,14 @@
       </c>
       <c r="K142" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.59999999998969999</v>
       </c>
       <c r="M142" s="17">
         <v>0.24000000000103</v>
       </c>
       <c r="N142" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.40000000001029995</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
@@ -37727,14 +37727,14 @@
       </c>
       <c r="K143" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.49999999998959999</v>
       </c>
       <c r="M143" s="17">
         <v>0.25000000000104</v>
       </c>
       <c r="N143" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.50000000001040001</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -37764,14 +37764,14 @@
       </c>
       <c r="K144" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.39999999998949992</v>
       </c>
       <c r="M144" s="17">
         <v>0.26000000000105</v>
       </c>
       <c r="N144" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.60000000001050002</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
@@ -37801,14 +37801,14 @@
       </c>
       <c r="K145" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.29999999998939991</v>
       </c>
       <c r="M145" s="17">
         <v>0.27000000000106</v>
       </c>
       <c r="N145" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.70000000001060003</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
@@ -37838,14 +37838,14 @@
       </c>
       <c r="K146" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.19999999998929988</v>
       </c>
       <c r="M146" s="17">
         <v>0.28000000000107</v>
       </c>
       <c r="N146" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.80000000001070004</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
@@ -37875,14 +37875,14 @@
       </c>
       <c r="K147" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>9.9999999989199853E-2</v>
       </c>
       <c r="M147" s="17">
         <v>0.29000000000108</v>
       </c>
       <c r="N147" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.90000000001080005</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
@@ -37912,14 +37912,14 @@
       </c>
       <c r="K148" s="15">
         <f t="shared" si="8"/>
-        <v>0.99999999998909983</v>
+        <v>0</v>
       </c>
       <c r="M148" s="17">
         <v>0.30000000000109001</v>
       </c>
       <c r="N148" s="7">
         <f t="shared" si="9"/>
-        <v>1.0900169655769784E-11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
@@ -37949,14 +37949,14 @@
       </c>
       <c r="K149" s="15">
         <f t="shared" si="8"/>
-        <v>0.89999999998899982</v>
+        <v>0</v>
       </c>
       <c r="M149" s="17">
         <v>0.31000000000110001</v>
       </c>
       <c r="N149" s="7">
         <f t="shared" si="9"/>
-        <v>0.10000000001100014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -37987,7 +37987,7 @@
       </c>
       <c r="K150" s="15">
         <f t="shared" si="8"/>
-        <v>0.79999999998889981</v>
+        <v>0</v>
       </c>
       <c r="L150" s="14"/>
       <c r="M150" s="17">
@@ -37995,7 +37995,7 @@
       </c>
       <c r="N150" s="7">
         <f t="shared" si="9"/>
-        <v>0.2000000000111001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -38026,7 +38026,7 @@
       </c>
       <c r="K151" s="15">
         <f t="shared" si="8"/>
-        <v>0.69999999998879991</v>
+        <v>0</v>
       </c>
       <c r="L151" s="14"/>
       <c r="M151" s="17">
@@ -38034,7 +38034,7 @@
       </c>
       <c r="N151" s="7">
         <f t="shared" si="9"/>
-        <v>0.30000000001120009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -38065,7 +38065,7 @@
       </c>
       <c r="K152" s="15">
         <f t="shared" si="8"/>
-        <v>0.59999999998869991</v>
+        <v>0</v>
       </c>
       <c r="L152" s="14"/>
       <c r="M152" s="17">
@@ -38073,7 +38073,7 @@
       </c>
       <c r="N152" s="7">
         <f t="shared" si="9"/>
-        <v>0.40000000001130004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
@@ -38104,7 +38104,7 @@
       </c>
       <c r="K153" s="15">
         <f t="shared" si="8"/>
-        <v>0.49999999998859995</v>
+        <v>0</v>
       </c>
       <c r="L153" s="14"/>
       <c r="M153" s="17">
@@ -38112,7 +38112,7 @@
       </c>
       <c r="N153" s="7">
         <f t="shared" si="9"/>
-        <v>0.50000000001139999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -38143,7 +38143,7 @@
       </c>
       <c r="K154" s="15">
         <f t="shared" si="8"/>
-        <v>0.39999999998849994</v>
+        <v>0</v>
       </c>
       <c r="L154" s="14"/>
       <c r="M154" s="17">
@@ -38151,7 +38151,7 @@
       </c>
       <c r="N154" s="7">
         <f t="shared" si="9"/>
-        <v>0.6000000000115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -38182,7 +38182,7 @@
       </c>
       <c r="K155" s="15">
         <f t="shared" si="8"/>
-        <v>0.29999999998839999</v>
+        <v>0</v>
       </c>
       <c r="L155" s="14"/>
       <c r="M155" s="17">
@@ -38190,7 +38190,7 @@
       </c>
       <c r="N155" s="7">
         <f t="shared" si="9"/>
-        <v>0.70000000001160001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -38221,7 +38221,7 @@
       </c>
       <c r="K156" s="15">
         <f t="shared" si="8"/>
-        <v>0.19999999998830001</v>
+        <v>0</v>
       </c>
       <c r="L156" s="14"/>
       <c r="M156" s="17">
@@ -38229,7 +38229,7 @@
       </c>
       <c r="N156" s="7">
         <f t="shared" si="9"/>
-        <v>0.80000000001169991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
@@ -38260,7 +38260,7 @@
       </c>
       <c r="K157" s="15">
         <f t="shared" si="8"/>
-        <v>9.9999999988200042E-2</v>
+        <v>0</v>
       </c>
       <c r="L157" s="14"/>
       <c r="M157" s="17">
@@ -38268,7 +38268,7 @@
       </c>
       <c r="N157" s="7">
         <f t="shared" si="9"/>
-        <v>0.90000000001179992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -40267,8 +40267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AA6EFE-CD62-433B-A946-8DC6807375C2}">
   <dimension ref="A1:N463"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40339,10 +40339,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="C7" s="7">
-        <v>-0.15</v>
+        <v>-0.1</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -40358,7 +40358,7 @@
       </c>
       <c r="H7" s="9">
         <f>1/(B7-C7)</f>
-        <v>-19.999999999999993</v>
+        <v>-20.000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -40366,27 +40366,27 @@
         <v>16</v>
       </c>
       <c r="B8" s="7">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="C8" s="7">
-        <v>-0.15</v>
+        <v>-0.1</v>
       </c>
       <c r="D8" s="7">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="E8" s="11">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1">
         <f>1/(C8-B8)</f>
-        <v>19.999999999999993</v>
+        <v>20.000000000000004</v>
       </c>
       <c r="H8" s="1">
         <f>1/(D8-E8)</f>
-        <v>-20</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -40394,27 +40394,27 @@
         <v>17</v>
       </c>
       <c r="B9" s="7">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="C9" s="11">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="D9" s="11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="11">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="1">
         <f>1/(C9-B9)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1">
         <f>1/(D9-E9)</f>
-        <v>-20</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -40422,27 +40422,27 @@
         <v>18</v>
       </c>
       <c r="B10" s="11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C10" s="11">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D10" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="11">
         <v>0.15</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.2</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="1">
         <f>1/(C10-B10)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1">
         <f>1/(D10-E10)</f>
-        <v>-19.999999999999993</v>
+        <v>-20.000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -40453,7 +40453,7 @@
         <v>0.15</v>
       </c>
       <c r="C11" s="11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -40466,7 +40466,7 @@
       </c>
       <c r="G11" s="1">
         <f>1/(C11-B11)</f>
-        <v>19.999999999999993</v>
+        <v>-20.000000000000004</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -42141,14 +42141,14 @@
       </c>
       <c r="B79" s="10">
         <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
+        <v>1</v>
       </c>
       <c r="D79" s="18">
         <v>-0.19500000000000001</v>
       </c>
       <c r="E79" s="16">
         <f t="shared" si="1"/>
-        <v>0.10000000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="18">
         <v>-0.19500000000000001</v>
@@ -42180,14 +42180,14 @@
       </c>
       <c r="B80" s="10">
         <f t="shared" si="0"/>
-        <v>0.79999999999999982</v>
+        <v>1</v>
       </c>
       <c r="D80" s="18">
         <v>-0.19</v>
       </c>
       <c r="E80" s="16">
         <f t="shared" si="1"/>
-        <v>0.20000000000000009</v>
+        <v>0</v>
       </c>
       <c r="G80" s="18">
         <v>-0.19</v>
@@ -42219,14 +42219,14 @@
       </c>
       <c r="B81" s="10">
         <f t="shared" si="0"/>
-        <v>0.69999999999999984</v>
+        <v>1</v>
       </c>
       <c r="D81" s="18">
         <v>-0.185</v>
       </c>
       <c r="E81" s="16">
         <f t="shared" si="1"/>
-        <v>0.30000000000000016</v>
+        <v>0</v>
       </c>
       <c r="G81" s="18">
         <v>-0.185</v>
@@ -42258,14 +42258,14 @@
       </c>
       <c r="B82" s="10">
         <f t="shared" si="0"/>
-        <v>0.59999999999999976</v>
+        <v>1</v>
       </c>
       <c r="D82" s="18">
         <v>-0.18</v>
       </c>
       <c r="E82" s="16">
         <f t="shared" si="1"/>
-        <v>0.40000000000000019</v>
+        <v>0</v>
       </c>
       <c r="G82" s="18">
         <v>-0.18</v>
@@ -42297,14 +42297,14 @@
       </c>
       <c r="B83" s="10">
         <f t="shared" si="0"/>
-        <v>0.49999999999999972</v>
+        <v>1</v>
       </c>
       <c r="D83" s="18">
         <v>-0.17499999999999999</v>
       </c>
       <c r="E83" s="16">
         <f t="shared" si="1"/>
-        <v>0.50000000000000022</v>
+        <v>0</v>
       </c>
       <c r="G83" s="18">
         <v>-0.17499999999999999</v>
@@ -42336,14 +42336,14 @@
       </c>
       <c r="B84" s="10">
         <f t="shared" si="0"/>
-        <v>0.40000000000000019</v>
+        <v>1</v>
       </c>
       <c r="D84" s="18">
         <v>-0.17</v>
       </c>
       <c r="E84" s="16">
         <f t="shared" si="1"/>
-        <v>0.59999999999999976</v>
+        <v>0</v>
       </c>
       <c r="G84" s="18">
         <v>-0.17</v>
@@ -42375,14 +42375,14 @@
       </c>
       <c r="B85" s="10">
         <f t="shared" si="0"/>
-        <v>0.30000000000000016</v>
+        <v>1</v>
       </c>
       <c r="D85" s="18">
         <v>-0.16500000000000001</v>
       </c>
       <c r="E85" s="16">
         <f t="shared" si="1"/>
-        <v>0.69999999999999984</v>
+        <v>0</v>
       </c>
       <c r="G85" s="18">
         <v>-0.16500000000000001</v>
@@ -42414,14 +42414,14 @@
       </c>
       <c r="B86" s="10">
         <f t="shared" si="0"/>
-        <v>0.20000000000000009</v>
+        <v>1</v>
       </c>
       <c r="D86" s="18">
         <v>-0.16</v>
       </c>
       <c r="E86" s="16">
         <f t="shared" si="1"/>
-        <v>0.79999999999999982</v>
+        <v>0</v>
       </c>
       <c r="G86" s="18">
         <v>-0.16</v>
@@ -42453,14 +42453,14 @@
       </c>
       <c r="B87" s="10">
         <f t="shared" si="0"/>
-        <v>0.10000000000000005</v>
+        <v>1</v>
       </c>
       <c r="D87" s="18">
         <v>-0.155</v>
       </c>
       <c r="E87" s="16">
         <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
+        <v>0</v>
       </c>
       <c r="G87" s="18">
         <v>-0.155</v>
@@ -42492,14 +42492,14 @@
       </c>
       <c r="B88" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="18">
         <v>-0.15</v>
       </c>
       <c r="E88" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="18">
         <v>-0.15</v>
@@ -42531,14 +42531,14 @@
       </c>
       <c r="B89" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="D89" s="18">
         <v>-0.14499999999999999</v>
       </c>
       <c r="E89" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="G89" s="18">
         <v>-0.14499999999999999</v>
@@ -42570,14 +42570,14 @@
       </c>
       <c r="B90" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80000000000000027</v>
       </c>
       <c r="D90" s="18">
         <v>-0.14000000000000001</v>
       </c>
       <c r="E90" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.19999999999999965</v>
       </c>
       <c r="G90" s="18">
         <v>-0.14000000000000001</v>
@@ -42609,14 +42609,14 @@
       </c>
       <c r="B91" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.70000000000000018</v>
       </c>
       <c r="D91" s="18">
         <v>-0.13500000000000001</v>
       </c>
       <c r="E91" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.29999999999999977</v>
       </c>
       <c r="G91" s="18">
         <v>-0.13500000000000001</v>
@@ -42648,14 +42648,14 @@
       </c>
       <c r="B92" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="D92" s="18">
         <v>-0.13</v>
       </c>
       <c r="E92" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.39999999999999986</v>
       </c>
       <c r="G92" s="18">
         <v>-0.13</v>
@@ -42687,14 +42687,14 @@
       </c>
       <c r="B93" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D93" s="18">
         <v>-0.125</v>
       </c>
       <c r="E93" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G93" s="18">
         <v>-0.125</v>
@@ -42726,14 +42726,14 @@
       </c>
       <c r="B94" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.39999999999999986</v>
       </c>
       <c r="D94" s="18">
         <v>-0.12</v>
       </c>
       <c r="E94" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="G94" s="18">
         <v>-0.12</v>
@@ -42765,14 +42765,14 @@
       </c>
       <c r="B95" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D95" s="18">
         <v>-0.115</v>
       </c>
       <c r="E95" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G95" s="18">
         <v>-0.115</v>
@@ -42804,14 +42804,14 @@
       </c>
       <c r="B96" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19999999999999993</v>
       </c>
       <c r="D96" s="18">
         <v>-0.11</v>
       </c>
       <c r="E96" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G96" s="18">
         <v>-0.11</v>
@@ -42843,14 +42843,14 @@
       </c>
       <c r="B97" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9999999999999825E-2</v>
       </c>
       <c r="D97" s="18">
         <v>-0.105</v>
       </c>
       <c r="E97" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="G97" s="18">
         <v>-0.105</v>
@@ -43318,14 +43318,14 @@
       </c>
       <c r="E109" s="16">
         <f t="shared" si="6"/>
-        <v>0.89999999999999991</v>
+        <v>1</v>
       </c>
       <c r="G109" s="18">
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="H109" s="15">
         <f t="shared" si="7"/>
-        <v>0.10000000000000009</v>
+        <v>0</v>
       </c>
       <c r="I109" s="14"/>
       <c r="J109" s="18">
@@ -43357,14 +43357,14 @@
       </c>
       <c r="E110" s="16">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G110" s="18">
         <v>-0.04</v>
       </c>
       <c r="H110" s="15">
         <f t="shared" si="7"/>
-        <v>0.20000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I110" s="14"/>
       <c r="J110" s="18">
@@ -43396,14 +43396,14 @@
       </c>
       <c r="E111" s="16">
         <f t="shared" si="6"/>
-        <v>0.70000000000000007</v>
+        <v>1</v>
       </c>
       <c r="G111" s="18">
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="H111" s="15">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I111" s="14"/>
       <c r="J111" s="18">
@@ -43435,14 +43435,14 @@
       </c>
       <c r="E112" s="16">
         <f t="shared" si="6"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G112" s="18">
         <v>-0.03</v>
       </c>
       <c r="H112" s="15">
         <f t="shared" si="7"/>
-        <v>0.40000000000000008</v>
+        <v>0</v>
       </c>
       <c r="I112" s="14"/>
       <c r="J112" s="18">
@@ -43474,14 +43474,14 @@
       </c>
       <c r="E113" s="16">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G113" s="18">
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="H113" s="15">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I113" s="14"/>
       <c r="J113" s="18">
@@ -43513,14 +43513,14 @@
       </c>
       <c r="E114" s="16">
         <f t="shared" si="6"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G114" s="18">
         <v>-0.02</v>
       </c>
       <c r="H114" s="15">
         <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="I114" s="14"/>
       <c r="J114" s="18">
@@ -43552,14 +43552,14 @@
       </c>
       <c r="E115" s="16">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="G115" s="18">
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="H115" s="15">
         <f t="shared" si="7"/>
-        <v>0.70000000000000007</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="I115" s="14"/>
       <c r="J115" s="18">
@@ -43591,14 +43591,14 @@
       </c>
       <c r="E116" s="16">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G116" s="18">
         <v>-0.01</v>
       </c>
       <c r="H116" s="15">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I116" s="14"/>
       <c r="J116" s="18">
@@ -43630,14 +43630,14 @@
       </c>
       <c r="E117" s="16">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="18">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H117" s="15">
         <f t="shared" si="7"/>
-        <v>0.90000000000000013</v>
+        <v>1</v>
       </c>
       <c r="J117" s="18">
         <v>-5.0000000000000001E-3</v>
@@ -43711,14 +43711,14 @@
       </c>
       <c r="H119" s="15">
         <f t="shared" si="7"/>
-        <v>0.90000000000000013</v>
+        <v>1</v>
       </c>
       <c r="J119" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K119" s="15">
         <f t="shared" si="8"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M119" s="18">
         <v>5.0000000000000001E-3</v>
@@ -43748,14 +43748,14 @@
       </c>
       <c r="H120" s="15">
         <f t="shared" si="7"/>
-        <v>0.80000000000000093</v>
+        <v>1</v>
       </c>
       <c r="J120" s="18">
         <v>9.9999999999999499E-3</v>
       </c>
       <c r="K120" s="15">
         <f t="shared" si="8"/>
-        <v>0.19999999999999901</v>
+        <v>0</v>
       </c>
       <c r="M120" s="18">
         <v>9.9999999999999499E-3</v>
@@ -43785,14 +43785,14 @@
       </c>
       <c r="H121" s="15">
         <f t="shared" si="7"/>
-        <v>0.70000000000000007</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="J121" s="18">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K121" s="15">
         <f t="shared" si="8"/>
-        <v>0.3</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="M121" s="18">
         <v>1.4999999999999999E-2</v>
@@ -43822,14 +43822,14 @@
       </c>
       <c r="H122" s="15">
         <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="J122" s="18">
         <v>0.02</v>
       </c>
       <c r="K122" s="15">
         <f t="shared" si="8"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="M122" s="18">
         <v>0.02</v>
@@ -43859,14 +43859,14 @@
       </c>
       <c r="H123" s="15">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J123" s="18">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K123" s="15">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M123" s="18">
         <v>2.5000000000000001E-2</v>
@@ -43896,14 +43896,14 @@
       </c>
       <c r="H124" s="15">
         <f t="shared" si="7"/>
-        <v>0.40000000000000008</v>
+        <v>0</v>
       </c>
       <c r="J124" s="18">
         <v>0.03</v>
       </c>
       <c r="K124" s="15">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M124" s="18">
         <v>0.03</v>
@@ -43933,14 +43933,14 @@
       </c>
       <c r="H125" s="15">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J125" s="18">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K125" s="15">
         <f t="shared" si="8"/>
-        <v>0.70000000000000007</v>
+        <v>1</v>
       </c>
       <c r="M125" s="18">
         <v>3.5000000000000003E-2</v>
@@ -43970,14 +43970,14 @@
       </c>
       <c r="H126" s="15">
         <f t="shared" si="7"/>
-        <v>0.20000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J126" s="18">
         <v>0.04</v>
       </c>
       <c r="K126" s="15">
         <f t="shared" si="8"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M126" s="18">
         <v>0.04</v>
@@ -44007,14 +44007,14 @@
       </c>
       <c r="H127" s="15">
         <f t="shared" si="7"/>
-        <v>0.10000000000000009</v>
+        <v>0</v>
       </c>
       <c r="J127" s="18">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K127" s="15">
         <f t="shared" si="8"/>
-        <v>0.89999999999999991</v>
+        <v>1</v>
       </c>
       <c r="M127" s="18">
         <v>4.4999999999999998E-2</v>
@@ -44458,7 +44458,7 @@
       </c>
       <c r="K139" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="M139" s="18">
         <v>0.105</v>
@@ -44495,7 +44495,7 @@
       </c>
       <c r="K140" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M140" s="18">
         <v>0.11</v>
@@ -44532,7 +44532,7 @@
       </c>
       <c r="K141" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M141" s="18">
         <v>0.115</v>
@@ -44569,7 +44569,7 @@
       </c>
       <c r="K142" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="M142" s="18">
         <v>0.12</v>
@@ -44606,7 +44606,7 @@
       </c>
       <c r="K143" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M143" s="18">
         <v>0.125</v>
@@ -44643,7 +44643,7 @@
       </c>
       <c r="K144" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.39999999999999986</v>
       </c>
       <c r="M144" s="18">
         <v>0.13</v>
@@ -44680,7 +44680,7 @@
       </c>
       <c r="K145" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.29999999999999977</v>
       </c>
       <c r="M145" s="18">
         <v>0.13500000000000001</v>
@@ -44717,7 +44717,7 @@
       </c>
       <c r="K146" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.19999999999999965</v>
       </c>
       <c r="M146" s="18">
         <v>0.14000000000000001</v>
@@ -44754,7 +44754,7 @@
       </c>
       <c r="K147" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="M147" s="18">
         <v>0.14499999999999999</v>
@@ -44791,7 +44791,7 @@
       </c>
       <c r="K148" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M148" s="18">
         <v>0.15</v>
@@ -44828,14 +44828,14 @@
       </c>
       <c r="K149" s="15">
         <f t="shared" si="8"/>
-        <v>0.89999999999999991</v>
+        <v>0</v>
       </c>
       <c r="M149" s="18">
         <v>0.155</v>
       </c>
       <c r="N149" s="7">
         <f t="shared" si="9"/>
-        <v>0.10000000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -44866,7 +44866,7 @@
       </c>
       <c r="K150" s="15">
         <f t="shared" si="8"/>
-        <v>0.79999999999999982</v>
+        <v>0</v>
       </c>
       <c r="L150" s="14"/>
       <c r="M150" s="18">
@@ -44874,7 +44874,7 @@
       </c>
       <c r="N150" s="7">
         <f t="shared" si="9"/>
-        <v>0.20000000000000009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -44905,7 +44905,7 @@
       </c>
       <c r="K151" s="15">
         <f t="shared" si="8"/>
-        <v>0.69999999999997986</v>
+        <v>0</v>
       </c>
       <c r="L151" s="14"/>
       <c r="M151" s="18">
@@ -44913,7 +44913,7 @@
       </c>
       <c r="N151" s="7">
         <f t="shared" si="9"/>
-        <v>0.30000000000002014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -44944,7 +44944,7 @@
       </c>
       <c r="K152" s="15">
         <f t="shared" si="8"/>
-        <v>0.59999999999997977</v>
+        <v>0</v>
       </c>
       <c r="L152" s="14"/>
       <c r="M152" s="18">
@@ -44952,7 +44952,7 @@
       </c>
       <c r="N152" s="7">
         <f t="shared" si="9"/>
-        <v>0.40000000000002017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
@@ -44983,7 +44983,7 @@
       </c>
       <c r="K153" s="15">
         <f t="shared" si="8"/>
-        <v>0.49999999999998029</v>
+        <v>0</v>
       </c>
       <c r="L153" s="14"/>
       <c r="M153" s="18">
@@ -44991,7 +44991,7 @@
       </c>
       <c r="N153" s="7">
         <f t="shared" si="9"/>
-        <v>0.50000000000001965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -45022,7 +45022,7 @@
       </c>
       <c r="K154" s="15">
         <f t="shared" si="8"/>
-        <v>0.3999999999999802</v>
+        <v>0</v>
       </c>
       <c r="L154" s="14"/>
       <c r="M154" s="18">
@@ -45030,7 +45030,7 @@
       </c>
       <c r="N154" s="7">
         <f t="shared" si="9"/>
-        <v>0.60000000000001974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -45061,7 +45061,7 @@
       </c>
       <c r="K155" s="15">
         <f t="shared" si="8"/>
-        <v>0.29999999999998017</v>
+        <v>0</v>
       </c>
       <c r="L155" s="14"/>
       <c r="M155" s="18">
@@ -45069,7 +45069,7 @@
       </c>
       <c r="N155" s="7">
         <f t="shared" si="9"/>
-        <v>0.70000000000001983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -45100,7 +45100,7 @@
       </c>
       <c r="K156" s="15">
         <f t="shared" si="8"/>
-        <v>0.19999999999998011</v>
+        <v>0</v>
       </c>
       <c r="L156" s="14"/>
       <c r="M156" s="18">
@@ -45108,7 +45108,7 @@
       </c>
       <c r="N156" s="7">
         <f t="shared" si="9"/>
-        <v>0.80000000000001981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
@@ -45139,7 +45139,7 @@
       </c>
       <c r="K157" s="15">
         <f t="shared" si="8"/>
-        <v>9.9999999999980063E-2</v>
+        <v>0</v>
       </c>
       <c r="L157" s="14"/>
       <c r="M157" s="18">
@@ -45147,7 +45147,7 @@
       </c>
       <c r="N157" s="7">
         <f t="shared" si="9"/>
-        <v>0.9000000000000199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
